--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_3_26.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_3_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1771772.799258334</v>
+        <v>1770077.941024442</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1287228.184107714</v>
+        <v>1287228.184107715</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673437</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -668,7 +668,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>241.0142888776591</v>
+        <v>105.6245995301945</v>
       </c>
       <c r="G2" t="n">
         <v>15.30273751513505</v>
@@ -704,7 +704,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -713,7 +713,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>14.47942859368512</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -735,28 +735,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>57.71533352957419</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -792,19 +792,19 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>56.17030901074575</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
         <v>108.1960350243787</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -899,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -908,13 +908,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="G5" t="n">
-        <v>71.01467844038824</v>
+        <v>190.3453970742847</v>
       </c>
       <c r="H5" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -941,7 +941,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -972,16 +972,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>137.6233369660562</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -990,7 +990,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1023,7 +1023,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1032,10 +1032,10 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>197.7454652996301</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1054,10 +1054,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="D7" t="n">
-        <v>108.1960350243787</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -1178,28 +1178,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W8" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>168.1666138174382</v>
       </c>
       <c r="Y8" t="n">
-        <v>80.83011447495538</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>96.4801325630321</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1221,13 +1221,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1260,25 +1260,25 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>158.7990834005502</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>357.7795714149541</v>
+        <v>357.7795714149542</v>
       </c>
       <c r="C11" t="n">
-        <v>340.3186215224811</v>
+        <v>18.38885579436015</v>
       </c>
       <c r="D11" t="n">
-        <v>329.7287713721565</v>
+        <v>329.7287713721566</v>
       </c>
       <c r="E11" t="n">
         <v>356.9760998237354</v>
       </c>
       <c r="F11" t="n">
-        <v>381.921775493185</v>
+        <v>381.9217754931851</v>
       </c>
       <c r="G11" t="n">
-        <v>387.9966247312781</v>
+        <v>387.9966247312782</v>
       </c>
       <c r="H11" t="n">
         <v>290.4347245022873</v>
       </c>
       <c r="I11" t="n">
-        <v>94.85220997855046</v>
+        <v>94.8522099785505</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>130.4731875638752</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>187.8463886171957</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>226.2032352564836</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>302.7979882216085</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>324.2866984688866</v>
       </c>
       <c r="X11" t="n">
-        <v>163.8946201406806</v>
+        <v>344.7768304299427</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>361.2836684075272</v>
       </c>
     </row>
     <row r="12">
@@ -1528,25 +1528,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>142.2925508501014</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>123.661202769686</v>
       </c>
       <c r="E13" t="n">
-        <v>121.4796923980427</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>11.71340554697949</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>127.8933879574563</v>
+        <v>127.8933879574564</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77081274701503</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>104.9044813177992</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1588,7 +1588,7 @@
         <v>227.1833730753016</v>
       </c>
       <c r="W13" t="n">
-        <v>261.5687280880646</v>
+        <v>209.7178800486874</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>357.7795714149543</v>
+        <v>357.7795714149542</v>
       </c>
       <c r="C14" t="n">
-        <v>340.3186215224812</v>
+        <v>309.1232573000232</v>
       </c>
       <c r="D14" t="n">
         <v>329.7287713721566</v>
       </c>
       <c r="E14" t="n">
-        <v>356.9760998237355</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>381.9217754931851</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>387.9966247312782</v>
       </c>
       <c r="H14" t="n">
-        <v>290.4347245022874</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>94.85220997855058</v>
+        <v>94.85220997855049</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>130.4731875638753</v>
+        <v>130.4731875638752</v>
       </c>
       <c r="T14" t="n">
-        <v>187.8463886171958</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>226.2032352564837</v>
       </c>
       <c r="V14" t="n">
-        <v>50.5452710436924</v>
+        <v>302.7979882216085</v>
       </c>
       <c r="W14" t="n">
-        <v>324.2866984688867</v>
+        <v>324.2866984688866</v>
       </c>
       <c r="X14" t="n">
         <v>344.7768304299427</v>
       </c>
       <c r="Y14" t="n">
-        <v>361.2836684075273</v>
+        <v>361.2836684075272</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1704,7 @@
         <v>100.0824643391291</v>
       </c>
       <c r="I15" t="n">
-        <v>46.07197699567762</v>
+        <v>46.07197699567761</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>22.02995793686992</v>
+        <v>22.02995793686991</v>
       </c>
       <c r="S15" t="n">
         <v>148.3099331995005</v>
@@ -1777,10 +1777,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>141.981753513654</v>
       </c>
       <c r="H16" t="n">
-        <v>127.8933879574565</v>
+        <v>127.8933879574564</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,22 +1813,22 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>180.6773288969401</v>
       </c>
       <c r="T16" t="n">
-        <v>151.8244460254358</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>261.3072160754403</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>227.1833730753017</v>
+        <v>116.9005676250744</v>
       </c>
       <c r="W16" t="n">
-        <v>261.5687280880647</v>
+        <v>261.5687280880646</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>200.7553851405108</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1862,7 +1862,7 @@
         <v>232.6712193579089</v>
       </c>
       <c r="I17" t="n">
-        <v>37.08870483417208</v>
+        <v>37.08870483417209</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>72.70968241949681</v>
+        <v>72.70968241949683</v>
       </c>
       <c r="T17" t="n">
         <v>130.0828834728173</v>
       </c>
       <c r="U17" t="n">
-        <v>168.4397301121052</v>
+        <v>168.4397301121053</v>
       </c>
       <c r="V17" t="n">
         <v>245.0344830772301</v>
@@ -1941,7 +1941,7 @@
         <v>100.0824643391291</v>
       </c>
       <c r="I18" t="n">
-        <v>46.07197699567762</v>
+        <v>46.07197699567761</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>22.02995793686992</v>
+        <v>22.02995793686991</v>
       </c>
       <c r="S18" t="n">
         <v>148.3099331995005</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.11420478903248</v>
+        <v>97.11420478903251</v>
       </c>
       <c r="C19" t="n">
-        <v>84.52904570572302</v>
+        <v>84.52904570572305</v>
       </c>
       <c r="D19" t="n">
-        <v>65.89769762530754</v>
+        <v>65.89769762530757</v>
       </c>
       <c r="E19" t="n">
-        <v>63.71618725366436</v>
+        <v>63.71618725366439</v>
       </c>
       <c r="F19" t="n">
-        <v>62.70327263002643</v>
+        <v>17.55348316336813</v>
       </c>
       <c r="G19" t="n">
-        <v>84.21824836927557</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>70.12988281307797</v>
       </c>
       <c r="I19" t="n">
-        <v>41.00730760263659</v>
+        <v>41.00730760263661</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>47.14097617342075</v>
+        <v>47.14097617342079</v>
       </c>
       <c r="S19" t="n">
         <v>122.9138237525616</v>
@@ -2068,7 +2068,7 @@
         <v>142.9918799961324</v>
       </c>
       <c r="Y19" t="n">
-        <v>76.62872293633481</v>
+        <v>135.86687795919</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>232.6712193579089</v>
       </c>
       <c r="I20" t="n">
-        <v>37.08870483417208</v>
+        <v>37.08870483417209</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>72.7096824194968</v>
+        <v>72.70968241949683</v>
       </c>
       <c r="T20" t="n">
         <v>130.0828834728173</v>
       </c>
       <c r="U20" t="n">
-        <v>168.4397301121052</v>
+        <v>168.4397301121053</v>
       </c>
       <c r="V20" t="n">
         <v>245.0344830772301</v>
@@ -2178,7 +2178,7 @@
         <v>100.0824643391291</v>
       </c>
       <c r="I21" t="n">
-        <v>46.07197699567762</v>
+        <v>46.07197699567761</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>22.02995793686992</v>
+        <v>22.02995793686991</v>
       </c>
       <c r="S21" t="n">
         <v>148.3099331995005</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.11420478903248</v>
+        <v>97.11420478903251</v>
       </c>
       <c r="C22" t="n">
-        <v>84.52904570572302</v>
+        <v>17.86428049981548</v>
       </c>
       <c r="D22" t="n">
-        <v>65.89769762530754</v>
+        <v>65.89769762530757</v>
       </c>
       <c r="E22" t="n">
-        <v>63.71618725366436</v>
+        <v>63.71618725366439</v>
       </c>
       <c r="F22" t="n">
-        <v>62.70327263002643</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>84.21824836927557</v>
+        <v>84.2182483692756</v>
       </c>
       <c r="H22" t="n">
-        <v>70.12988281307796</v>
+        <v>70.12988281307798</v>
       </c>
       <c r="I22" t="n">
-        <v>41.00730760263659</v>
+        <v>41.00730760263661</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>47.14097617342077</v>
+        <v>47.14097617342078</v>
       </c>
       <c r="S22" t="n">
         <v>122.9138237525616</v>
@@ -2305,7 +2305,7 @@
         <v>142.9918799961324</v>
       </c>
       <c r="Y22" t="n">
-        <v>6.498840123256204</v>
+        <v>135.86687795919</v>
       </c>
     </row>
     <row r="23">
@@ -2318,7 +2318,7 @@
         <v>300.0160662705758</v>
       </c>
       <c r="C23" t="n">
-        <v>282.5551163781028</v>
+        <v>282.5551163781029</v>
       </c>
       <c r="D23" t="n">
         <v>271.9652662277782</v>
@@ -2327,16 +2327,16 @@
         <v>299.212594679357</v>
       </c>
       <c r="F23" t="n">
-        <v>324.1582703488066</v>
+        <v>324.1582703488067</v>
       </c>
       <c r="G23" t="n">
-        <v>330.2331195868998</v>
+        <v>330.2331195868999</v>
       </c>
       <c r="H23" t="n">
-        <v>232.6712193579089</v>
+        <v>232.671219357909</v>
       </c>
       <c r="I23" t="n">
-        <v>37.08870483417208</v>
+        <v>37.08870483417218</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>72.7096824194968</v>
+        <v>72.70968241949691</v>
       </c>
       <c r="T23" t="n">
-        <v>130.0828834728173</v>
+        <v>130.0828834728174</v>
       </c>
       <c r="U23" t="n">
-        <v>168.4397301121052</v>
+        <v>168.4397301121053</v>
       </c>
       <c r="V23" t="n">
-        <v>245.0344830772301</v>
+        <v>245.0344830772302</v>
       </c>
       <c r="W23" t="n">
-        <v>266.5231933245082</v>
+        <v>266.5231933245083</v>
       </c>
       <c r="X23" t="n">
-        <v>287.0133252855642</v>
+        <v>287.0133252855643</v>
       </c>
       <c r="Y23" t="n">
-        <v>303.5201632631488</v>
+        <v>303.5201632631489</v>
       </c>
     </row>
     <row r="24">
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.11420478903248</v>
+        <v>97.11420478903258</v>
       </c>
       <c r="C25" t="n">
-        <v>25.29089068286659</v>
+        <v>84.52904570572312</v>
       </c>
       <c r="D25" t="n">
-        <v>65.89769762530754</v>
+        <v>65.89769762530764</v>
       </c>
       <c r="E25" t="n">
-        <v>63.71618725366436</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>62.70327263002643</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>84.21824836927557</v>
+        <v>84.21824836927567</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>70.12988281307804</v>
       </c>
       <c r="I25" t="n">
-        <v>41.00730760263659</v>
+        <v>41.00730760263669</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>47.14097617342075</v>
+        <v>47.14097617342085</v>
       </c>
       <c r="S25" t="n">
-        <v>122.9138237525616</v>
+        <v>122.9138237525617</v>
       </c>
       <c r="T25" t="n">
-        <v>140.7202764876418</v>
+        <v>140.7202764876419</v>
       </c>
       <c r="U25" t="n">
-        <v>203.5437109310618</v>
+        <v>203.5437109310619</v>
       </c>
       <c r="V25" t="n">
-        <v>169.4198679309232</v>
+        <v>169.4198679309233</v>
       </c>
       <c r="W25" t="n">
-        <v>203.8052229436862</v>
+        <v>203.8052229436863</v>
       </c>
       <c r="X25" t="n">
         <v>142.9918799961324</v>
       </c>
       <c r="Y25" t="n">
-        <v>135.86687795919</v>
+        <v>132.9183000069443</v>
       </c>
     </row>
     <row r="26">
@@ -2761,10 +2761,10 @@
         <v>47.14097617342085</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>122.9138237525617</v>
       </c>
       <c r="T28" t="n">
-        <v>140.7202764876419</v>
+        <v>11.35223865170529</v>
       </c>
       <c r="U28" t="n">
         <v>203.5437109310619</v>
@@ -2776,7 +2776,7 @@
         <v>203.8052229436863</v>
       </c>
       <c r="X28" t="n">
-        <v>136.5376659127583</v>
+        <v>142.9918799961324</v>
       </c>
       <c r="Y28" t="n">
         <v>135.8668779591901</v>
@@ -2837,7 +2837,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>-1.350599632132798e-12</v>
       </c>
       <c r="S29" t="n">
         <v>72.70968241949683</v>
@@ -2998,10 +2998,10 @@
         <v>47.1409761734208</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>122.9138237525616</v>
       </c>
       <c r="T31" t="n">
-        <v>140.7202764876419</v>
+        <v>140.7202764876418</v>
       </c>
       <c r="U31" t="n">
         <v>203.5437109310618</v>
@@ -3013,7 +3013,7 @@
         <v>203.8052229436862</v>
       </c>
       <c r="X31" t="n">
-        <v>136.5376659127594</v>
+        <v>13.62384216019831</v>
       </c>
       <c r="Y31" t="n">
         <v>135.86687795919</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>72.70968241949684</v>
+        <v>72.70968241949683</v>
       </c>
       <c r="T32" t="n">
         <v>130.0828834728173</v>
@@ -3184,16 +3184,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>14.8871431265189</v>
+        <v>97.11420478903251</v>
       </c>
       <c r="C34" t="n">
         <v>84.52904570572305</v>
       </c>
       <c r="D34" t="n">
-        <v>65.89769762530757</v>
+        <v>0.2458470430384727</v>
       </c>
       <c r="E34" t="n">
-        <v>63.71618725366439</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>62.70327263002646</v>
@@ -3202,7 +3202,7 @@
         <v>84.2182483692756</v>
       </c>
       <c r="H34" t="n">
-        <v>70.12988281307797</v>
+        <v>70.12988281307798</v>
       </c>
       <c r="I34" t="n">
         <v>41.00730760263662</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>47.1409761734208</v>
       </c>
       <c r="S34" t="n">
-        <v>122.9138237525617</v>
+        <v>122.9138237525616</v>
       </c>
       <c r="T34" t="n">
-        <v>140.7202764876419</v>
+        <v>140.7202764876418</v>
       </c>
       <c r="U34" t="n">
         <v>203.5437109310618</v>
@@ -3284,7 +3284,7 @@
         <v>232.6712193579089</v>
       </c>
       <c r="I35" t="n">
-        <v>37.08870483417211</v>
+        <v>37.08870483417209</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>72.70968241949684</v>
+        <v>72.70968241949683</v>
       </c>
       <c r="T35" t="n">
         <v>130.0828834728173</v>
@@ -3323,7 +3323,7 @@
         <v>168.4397301121053</v>
       </c>
       <c r="V35" t="n">
-        <v>245.0344830772301</v>
+        <v>245.0344830772298</v>
       </c>
       <c r="W35" t="n">
         <v>266.5231933245082</v>
@@ -3421,22 +3421,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.11420478903251</v>
+        <v>97.1142047890325</v>
       </c>
       <c r="C37" t="n">
-        <v>59.88450272608969</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>65.89769762530757</v>
+        <v>65.89769762530756</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>63.71618725366437</v>
       </c>
       <c r="F37" t="n">
-        <v>62.70327263002646</v>
+        <v>62.70327263002645</v>
       </c>
       <c r="G37" t="n">
-        <v>84.2182483692756</v>
+        <v>80.38656384170115</v>
       </c>
       <c r="H37" t="n">
         <v>70.12988281307797</v>
@@ -3472,10 +3472,10 @@
         <v>47.14097617342078</v>
       </c>
       <c r="S37" t="n">
-        <v>122.9138237525617</v>
+        <v>122.9138237525616</v>
       </c>
       <c r="T37" t="n">
-        <v>140.7202764876419</v>
+        <v>140.7202764876418</v>
       </c>
       <c r="U37" t="n">
         <v>203.5437109310618</v>
@@ -3500,28 +3500,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>300.0160662705758</v>
+        <v>300.0160662705757</v>
       </c>
       <c r="C38" t="n">
         <v>282.5551163781028</v>
       </c>
       <c r="D38" t="n">
-        <v>271.9652662277782</v>
+        <v>271.9652662277781</v>
       </c>
       <c r="E38" t="n">
-        <v>299.212594679357</v>
+        <v>299.2125946793569</v>
       </c>
       <c r="F38" t="n">
-        <v>324.1582703488067</v>
+        <v>324.1582703488066</v>
       </c>
       <c r="G38" t="n">
-        <v>330.2331195868998</v>
+        <v>330.2331195868997</v>
       </c>
       <c r="H38" t="n">
-        <v>232.671219357909</v>
+        <v>232.6712193579089</v>
       </c>
       <c r="I38" t="n">
-        <v>37.08870483417216</v>
+        <v>37.08870483417206</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,22 +3551,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>72.70968241949689</v>
+        <v>72.7096824194968</v>
       </c>
       <c r="T38" t="n">
-        <v>130.0828834728174</v>
+        <v>130.0828834728173</v>
       </c>
       <c r="U38" t="n">
-        <v>168.4397301121053</v>
+        <v>168.4397301121052</v>
       </c>
       <c r="V38" t="n">
-        <v>245.0344830772302</v>
+        <v>245.0344830772301</v>
       </c>
       <c r="W38" t="n">
-        <v>266.5231933245083</v>
+        <v>266.5231933245082</v>
       </c>
       <c r="X38" t="n">
-        <v>287.0133252855643</v>
+        <v>287.0133252855642</v>
       </c>
       <c r="Y38" t="n">
         <v>303.5201632631488</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.11420478903257</v>
+        <v>97.11420478903247</v>
       </c>
       <c r="C40" t="n">
-        <v>84.52904570572311</v>
+        <v>84.52904570572301</v>
       </c>
       <c r="D40" t="n">
-        <v>65.89769762530763</v>
+        <v>65.89769762530753</v>
       </c>
       <c r="E40" t="n">
-        <v>63.71618725366444</v>
+        <v>4.478032230808594</v>
       </c>
       <c r="F40" t="n">
-        <v>62.70327263002652</v>
+        <v>62.70327263002642</v>
       </c>
       <c r="G40" t="n">
-        <v>84.21824836927566</v>
+        <v>84.21824836927556</v>
       </c>
       <c r="H40" t="n">
-        <v>70.12988281307803</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>41.00730760263657</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,25 +3706,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>47.14097617342075</v>
       </c>
       <c r="S40" t="n">
-        <v>81.6940696926841</v>
+        <v>122.9138237525616</v>
       </c>
       <c r="T40" t="n">
-        <v>140.7202764876419</v>
+        <v>140.7202764876418</v>
       </c>
       <c r="U40" t="n">
-        <v>203.5437109310619</v>
+        <v>203.5437109310618</v>
       </c>
       <c r="V40" t="n">
-        <v>169.4198679309233</v>
+        <v>169.4198679309232</v>
       </c>
       <c r="W40" t="n">
-        <v>203.8052229436863</v>
+        <v>203.8052229436862</v>
       </c>
       <c r="X40" t="n">
-        <v>142.9918799961324</v>
+        <v>142.9918799961323</v>
       </c>
       <c r="Y40" t="n">
         <v>135.86687795919</v>
@@ -3740,7 +3740,7 @@
         <v>300.0160662705758</v>
       </c>
       <c r="C41" t="n">
-        <v>282.5551163781028</v>
+        <v>282.5551163781029</v>
       </c>
       <c r="D41" t="n">
         <v>271.9652662277782</v>
@@ -3749,16 +3749,16 @@
         <v>299.212594679357</v>
       </c>
       <c r="F41" t="n">
-        <v>324.1582703488066</v>
+        <v>324.1582703488067</v>
       </c>
       <c r="G41" t="n">
-        <v>330.2331195868998</v>
+        <v>330.2331195868999</v>
       </c>
       <c r="H41" t="n">
-        <v>232.6712193579089</v>
+        <v>232.671219357909</v>
       </c>
       <c r="I41" t="n">
-        <v>37.08870483417211</v>
+        <v>37.08870483417218</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>72.70968241949684</v>
+        <v>72.70968241949691</v>
       </c>
       <c r="T41" t="n">
-        <v>130.0828834728173</v>
+        <v>130.0828834728174</v>
       </c>
       <c r="U41" t="n">
         <v>168.4397301121053</v>
       </c>
       <c r="V41" t="n">
-        <v>245.0344830772301</v>
+        <v>245.0344830772302</v>
       </c>
       <c r="W41" t="n">
-        <v>266.5231933245082</v>
+        <v>266.5231933245083</v>
       </c>
       <c r="X41" t="n">
-        <v>287.0133252855642</v>
+        <v>287.0133252855643</v>
       </c>
       <c r="Y41" t="n">
-        <v>303.5201632631488</v>
+        <v>303.5201632631489</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>92.97172292501044</v>
+        <v>97.11420478903258</v>
       </c>
       <c r="C43" t="n">
-        <v>84.52904570572305</v>
+        <v>84.52904570572312</v>
       </c>
       <c r="D43" t="n">
-        <v>65.89769762530757</v>
+        <v>65.89769762530764</v>
       </c>
       <c r="E43" t="n">
-        <v>63.71618725366439</v>
+        <v>63.71618725366446</v>
       </c>
       <c r="F43" t="n">
-        <v>62.70327263002646</v>
+        <v>62.70327263002653</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>84.21824836927567</v>
       </c>
       <c r="H43" t="n">
-        <v>70.12988281307797</v>
+        <v>70.12988281307804</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>41.00730760263669</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>47.14097617342078</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>122.9138237525617</v>
@@ -3952,19 +3952,19 @@
         <v>140.7202764876419</v>
       </c>
       <c r="U43" t="n">
-        <v>203.5437109310618</v>
+        <v>203.5437109310619</v>
       </c>
       <c r="V43" t="n">
-        <v>169.4198679309232</v>
+        <v>169.4198679309233</v>
       </c>
       <c r="W43" t="n">
-        <v>203.8052229436862</v>
+        <v>203.8052229436863</v>
       </c>
       <c r="X43" t="n">
-        <v>142.9918799961324</v>
+        <v>60.76481833361795</v>
       </c>
       <c r="Y43" t="n">
-        <v>135.86687795919</v>
+        <v>135.8668779591901</v>
       </c>
     </row>
     <row r="44">
@@ -3977,7 +3977,7 @@
         <v>300.0160662705758</v>
       </c>
       <c r="C44" t="n">
-        <v>282.5551163781028</v>
+        <v>282.5551163781029</v>
       </c>
       <c r="D44" t="n">
         <v>271.9652662277782</v>
@@ -3986,16 +3986,16 @@
         <v>299.212594679357</v>
       </c>
       <c r="F44" t="n">
-        <v>324.1582703488066</v>
+        <v>324.1582703488067</v>
       </c>
       <c r="G44" t="n">
-        <v>330.2331195868998</v>
+        <v>330.2331195868999</v>
       </c>
       <c r="H44" t="n">
-        <v>232.6712193579089</v>
+        <v>232.671219357909</v>
       </c>
       <c r="I44" t="n">
-        <v>37.08870483417211</v>
+        <v>37.08870483417218</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>72.70968241949683</v>
+        <v>72.70968241949691</v>
       </c>
       <c r="T44" t="n">
-        <v>130.0828834728173</v>
+        <v>130.0828834728174</v>
       </c>
       <c r="U44" t="n">
         <v>168.4397301121053</v>
       </c>
       <c r="V44" t="n">
-        <v>245.0344830772301</v>
+        <v>245.0344830772302</v>
       </c>
       <c r="W44" t="n">
-        <v>266.5231933245082</v>
+        <v>266.5231933245083</v>
       </c>
       <c r="X44" t="n">
-        <v>287.0133252855642</v>
+        <v>287.0133252855643</v>
       </c>
       <c r="Y44" t="n">
-        <v>303.5201632631488</v>
+        <v>303.5201632631489</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.11420478903251</v>
+        <v>97.11420478903258</v>
       </c>
       <c r="C46" t="n">
-        <v>84.52904570572305</v>
+        <v>84.52904570572312</v>
       </c>
       <c r="D46" t="n">
-        <v>65.89769762530757</v>
+        <v>65.89769762530764</v>
       </c>
       <c r="E46" t="n">
-        <v>38.05872965039305</v>
+        <v>18.56639778700512</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>62.70327263002653</v>
       </c>
       <c r="G46" t="n">
-        <v>84.2182483692756</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>70.12988281307798</v>
+        <v>70.12988281307804</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>41.00730760263669</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>47.1409761734208</v>
+        <v>47.14097617342085</v>
       </c>
       <c r="S46" t="n">
-        <v>122.9138237525616</v>
+        <v>122.9138237525617</v>
       </c>
       <c r="T46" t="n">
-        <v>140.7202764876418</v>
+        <v>140.7202764876419</v>
       </c>
       <c r="U46" t="n">
-        <v>203.5437109310618</v>
+        <v>203.5437109310619</v>
       </c>
       <c r="V46" t="n">
-        <v>169.4198679309232</v>
+        <v>169.4198679309233</v>
       </c>
       <c r="W46" t="n">
-        <v>203.8052229436862</v>
+        <v>203.8052229436863</v>
       </c>
       <c r="X46" t="n">
         <v>142.9918799961324</v>
       </c>
       <c r="Y46" t="n">
-        <v>135.86687795919</v>
+        <v>135.8668779591901</v>
       </c>
     </row>
   </sheetData>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>502.8591282797204</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="C2" t="n">
-        <v>502.8591282797204</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="D2" t="n">
-        <v>502.8591282797204</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="E2" t="n">
-        <v>502.8591282797204</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="F2" t="n">
         <v>259.4103516356203</v>
@@ -4352,28 +4352,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S2" t="n">
-        <v>742.8341567219593</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T2" t="n">
-        <v>517.4848137278872</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U2" t="n">
-        <v>502.8591282797204</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V2" t="n">
-        <v>502.8591282797204</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="W2" t="n">
-        <v>502.8591282797204</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="X2" t="n">
-        <v>502.8591282797204</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="Y2" t="n">
-        <v>502.8591282797204</v>
+        <v>366.1018663125844</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>670.606730582354</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C3" t="n">
-        <v>670.606730582354</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D3" t="n">
-        <v>521.6723209211027</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E3" t="n">
-        <v>362.4348659156472</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F3" t="n">
-        <v>362.4348659156472</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G3" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H3" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I3" t="n">
         <v>20.03527576299844</v>
@@ -4416,16 +4416,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N3" t="n">
-        <v>542.809531908403</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O3" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4440,19 +4440,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V3" t="n">
-        <v>728.9050472788936</v>
+        <v>679.0958513775852</v>
       </c>
       <c r="W3" t="n">
-        <v>728.9050472788936</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="X3" t="n">
-        <v>728.9050472788936</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y3" t="n">
-        <v>728.9050472788936</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="4">
@@ -4516,19 +4516,19 @@
         <v>151.0645035650224</v>
       </c>
       <c r="T4" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U4" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V4" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W4" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X4" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y4" t="n">
         <v>41.77557929797318</v>
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="C5" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="D5" t="n">
-        <v>802.5825927271064</v>
+        <v>710.516763498309</v>
       </c>
       <c r="E5" t="n">
-        <v>802.5825927271064</v>
+        <v>710.516763498309</v>
       </c>
       <c r="F5" t="n">
-        <v>559.1338160830064</v>
+        <v>467.067986854209</v>
       </c>
       <c r="G5" t="n">
-        <v>487.4018176583718</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="H5" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I5" t="n">
         <v>31.35113235729608</v>
@@ -4589,28 +4589,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S5" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T5" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U5" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V5" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W5" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X5" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y5" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>292.6418663608746</v>
+        <v>159.0487474458835</v>
       </c>
       <c r="C6" t="n">
-        <v>292.6418663608746</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D6" t="n">
-        <v>292.6418663608746</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E6" t="n">
-        <v>133.4044113554191</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F6" t="n">
-        <v>133.4044113554191</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G6" t="n">
-        <v>133.4044113554191</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H6" t="n">
         <v>20.03527576299844</v>
@@ -4650,19 +4650,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>248.2447175439888</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M6" t="n">
-        <v>486.8488635328713</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N6" t="n">
-        <v>725.4530095217538</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O6" t="n">
-        <v>964.0571555106362</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4671,25 +4671,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U6" t="n">
-        <v>735.8335372470253</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V6" t="n">
-        <v>536.0906430049747</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="W6" t="n">
-        <v>292.6418663608746</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="X6" t="n">
-        <v>292.6418663608746</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="Y6" t="n">
-        <v>292.6418663608746</v>
+        <v>327.2640844659515</v>
       </c>
     </row>
     <row r="7">
@@ -4702,7 +4702,7 @@
         <v>151.0645035650224</v>
       </c>
       <c r="C7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D7" t="n">
         <v>41.77557929797318</v>
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>266.3558523848238</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="C8" t="n">
-        <v>266.3558523848238</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="D8" t="n">
-        <v>266.3558523848238</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="E8" t="n">
-        <v>266.3558523848238</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="F8" t="n">
-        <v>259.4103516356203</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G8" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H8" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I8" t="n">
         <v>31.35113235729608</v>
@@ -4826,28 +4826,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T8" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U8" t="n">
-        <v>591.4512093066566</v>
+        <v>710.516763498309</v>
       </c>
       <c r="V8" t="n">
-        <v>591.4512093066566</v>
+        <v>467.067986854209</v>
       </c>
       <c r="W8" t="n">
-        <v>348.0024326625565</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="X8" t="n">
-        <v>348.0024326625565</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="Y8" t="n">
-        <v>266.3558523848238</v>
+        <v>53.75394372784808</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>528.0732384820715</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="C9" t="n">
-        <v>430.6185591254734</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="D9" t="n">
-        <v>430.6185591254734</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="E9" t="n">
-        <v>271.3811041200179</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F9" t="n">
-        <v>271.3811041200179</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
         <v>19.28114311021272</v>
@@ -4884,19 +4884,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N9" t="n">
-        <v>781.4136778972854</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P9" t="n">
         <v>964.0571555106362</v>
@@ -4908,25 +4908,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>803.6540409646259</v>
       </c>
       <c r="T9" t="n">
-        <v>964.0571555106362</v>
+        <v>803.6540409646259</v>
       </c>
       <c r="U9" t="n">
-        <v>735.8335372470253</v>
+        <v>803.6540409646259</v>
       </c>
       <c r="V9" t="n">
-        <v>735.8335372470253</v>
+        <v>568.5019327328832</v>
       </c>
       <c r="W9" t="n">
-        <v>735.8335372470253</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="X9" t="n">
-        <v>735.8335372470253</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="Y9" t="n">
-        <v>528.0732384820715</v>
+        <v>325.0531560887832</v>
       </c>
     </row>
     <row r="10">
@@ -4936,10 +4936,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D10" t="n">
         <v>19.28114311021272</v>
@@ -5005,7 +5005,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="11">
@@ -5015,10 +5015,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2277.477558491002</v>
+        <v>1952.295976947445</v>
       </c>
       <c r="C11" t="n">
-        <v>1933.72137513496</v>
+        <v>1933.721375134961</v>
       </c>
       <c r="D11" t="n">
         <v>1600.66201011258</v>
@@ -5027,10 +5027,10 @@
         <v>1240.080091098706</v>
       </c>
       <c r="F11" t="n">
-        <v>854.3005198934684</v>
+        <v>854.3005198934686</v>
       </c>
       <c r="G11" t="n">
-        <v>462.3847373366218</v>
+        <v>462.3847373366219</v>
       </c>
       <c r="H11" t="n">
         <v>169.0163287484528</v>
@@ -5066,25 +5066,25 @@
         <v>3660.300781940293</v>
       </c>
       <c r="S11" t="n">
-        <v>3528.509683390924</v>
+        <v>3660.300781940293</v>
       </c>
       <c r="T11" t="n">
-        <v>3338.765856504868</v>
+        <v>3660.300781940293</v>
       </c>
       <c r="U11" t="n">
-        <v>3110.277740084177</v>
+        <v>3660.300781940293</v>
       </c>
       <c r="V11" t="n">
-        <v>2804.421186324977</v>
+        <v>3354.444228181093</v>
       </c>
       <c r="W11" t="n">
-        <v>2804.421186324977</v>
+        <v>3026.881906495349</v>
       </c>
       <c r="X11" t="n">
-        <v>2638.871064970754</v>
+        <v>2678.622481818639</v>
       </c>
       <c r="Y11" t="n">
-        <v>2638.871064970754</v>
+        <v>2313.689483427197</v>
       </c>
     </row>
     <row r="12">
@@ -5121,19 +5121,19 @@
         <v>73.20601563880585</v>
       </c>
       <c r="K12" t="n">
-        <v>137.906432594863</v>
+        <v>182.1357483745626</v>
       </c>
       <c r="L12" t="n">
-        <v>638.3586107252377</v>
+        <v>682.5879265049373</v>
       </c>
       <c r="M12" t="n">
-        <v>1274.34191943941</v>
+        <v>1318.571235219109</v>
       </c>
       <c r="N12" t="n">
-        <v>1942.864827295306</v>
+        <v>1987.094143075005</v>
       </c>
       <c r="O12" t="n">
-        <v>2488.017003181068</v>
+        <v>2532.246318960767</v>
       </c>
       <c r="P12" t="n">
         <v>2637.497792942953</v>
@@ -5173,43 +5173,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>480.6595881161593</v>
+        <v>427.0700595520962</v>
       </c>
       <c r="C13" t="n">
-        <v>336.9297387726226</v>
+        <v>427.0700595520962</v>
       </c>
       <c r="D13" t="n">
-        <v>336.9297387726226</v>
+        <v>302.1597537241306</v>
       </c>
       <c r="E13" t="n">
-        <v>214.2229787745997</v>
+        <v>302.1597537241306</v>
       </c>
       <c r="F13" t="n">
-        <v>202.3912559998729</v>
+        <v>302.1597537241306</v>
       </c>
       <c r="G13" t="n">
-        <v>202.3912559998729</v>
+        <v>302.1597537241306</v>
       </c>
       <c r="H13" t="n">
-        <v>73.20601563880585</v>
+        <v>172.9745133630635</v>
       </c>
       <c r="I13" t="n">
         <v>73.20601563880585</v>
       </c>
       <c r="J13" t="n">
-        <v>79.3246619196531</v>
+        <v>79.32466191965297</v>
       </c>
       <c r="K13" t="n">
-        <v>203.3235852420086</v>
+        <v>203.3235852420084</v>
       </c>
       <c r="L13" t="n">
-        <v>410.6171321895912</v>
+        <v>410.6171321895911</v>
       </c>
       <c r="M13" t="n">
-        <v>638.2252920475064</v>
+        <v>638.2252920475062</v>
       </c>
       <c r="N13" t="n">
-        <v>866.4434782183686</v>
+        <v>866.4434782183682</v>
       </c>
       <c r="O13" t="n">
         <v>1063.109528897734</v>
@@ -5218,31 +5218,31 @@
         <v>1211.436193392007</v>
       </c>
       <c r="Q13" t="n">
-        <v>1238.295262094752</v>
+        <v>1238.295262094751</v>
       </c>
       <c r="R13" t="n">
-        <v>1238.295262094752</v>
+        <v>1132.33113955152</v>
       </c>
       <c r="S13" t="n">
-        <v>1238.295262094752</v>
+        <v>1132.33113955152</v>
       </c>
       <c r="T13" t="n">
-        <v>1238.295262094752</v>
+        <v>1132.33113955152</v>
       </c>
       <c r="U13" t="n">
-        <v>974.3485791902666</v>
+        <v>868.3844566470347</v>
       </c>
       <c r="V13" t="n">
-        <v>744.8704245687497</v>
+        <v>638.9063020255178</v>
       </c>
       <c r="W13" t="n">
-        <v>480.6595881161593</v>
+        <v>427.0700595520962</v>
       </c>
       <c r="X13" t="n">
-        <v>480.6595881161593</v>
+        <v>427.0700595520962</v>
       </c>
       <c r="Y13" t="n">
-        <v>480.6595881161593</v>
+        <v>427.0700595520962</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1885.561775934156</v>
+        <v>1592.016761977385</v>
       </c>
       <c r="C14" t="n">
-        <v>1541.805592578114</v>
+        <v>1279.771047532917</v>
       </c>
       <c r="D14" t="n">
-        <v>1208.746227555733</v>
+        <v>946.7116825105368</v>
       </c>
       <c r="E14" t="n">
-        <v>848.1643085418591</v>
+        <v>946.7116825105368</v>
       </c>
       <c r="F14" t="n">
-        <v>462.384737336622</v>
+        <v>560.9321113052994</v>
       </c>
       <c r="G14" t="n">
-        <v>462.384737336622</v>
+        <v>169.0163287484527</v>
       </c>
       <c r="H14" t="n">
-        <v>169.0163287484529</v>
+        <v>169.0163287484527</v>
       </c>
       <c r="I14" t="n">
         <v>73.20601563880585</v>
@@ -5279,16 +5279,16 @@
         <v>258.9898176069159</v>
       </c>
       <c r="K14" t="n">
-        <v>658.1763815223496</v>
+        <v>658.1763815223499</v>
       </c>
       <c r="L14" t="n">
-        <v>1205.679240092234</v>
+        <v>1205.679240092235</v>
       </c>
       <c r="M14" t="n">
         <v>1831.488208231171</v>
       </c>
       <c r="N14" t="n">
-        <v>2452.791422191915</v>
+        <v>2452.791422191916</v>
       </c>
       <c r="O14" t="n">
         <v>2994.282791219483</v>
@@ -5297,31 +5297,31 @@
         <v>3418.758763931392</v>
       </c>
       <c r="Q14" t="n">
-        <v>3660.300781940292</v>
+        <v>3660.300781940293</v>
       </c>
       <c r="R14" t="n">
-        <v>3660.300781940292</v>
+        <v>3660.300781940293</v>
       </c>
       <c r="S14" t="n">
-        <v>3528.509683390923</v>
+        <v>3528.509683390924</v>
       </c>
       <c r="T14" t="n">
-        <v>3338.765856504867</v>
+        <v>3528.509683390924</v>
       </c>
       <c r="U14" t="n">
-        <v>3338.765856504867</v>
+        <v>3300.021566970233</v>
       </c>
       <c r="V14" t="n">
-        <v>3287.710027167803</v>
+        <v>2994.165013211032</v>
       </c>
       <c r="W14" t="n">
-        <v>2960.147705482059</v>
+        <v>2666.602691525288</v>
       </c>
       <c r="X14" t="n">
-        <v>2611.888280805349</v>
+        <v>2318.343266848578</v>
       </c>
       <c r="Y14" t="n">
-        <v>2246.955282413907</v>
+        <v>1953.410268457137</v>
       </c>
     </row>
     <row r="15">
@@ -5343,10 +5343,10 @@
         <v>504.8310905873218</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2965326142068</v>
+        <v>358.2965326142067</v>
       </c>
       <c r="G15" t="n">
-        <v>220.836764461843</v>
+        <v>220.8367644618429</v>
       </c>
       <c r="H15" t="n">
         <v>119.7433661394903</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>327.3015618278388</v>
+        <v>470.7174744678931</v>
       </c>
       <c r="C16" t="n">
-        <v>327.3015618278388</v>
+        <v>470.7174744678931</v>
       </c>
       <c r="D16" t="n">
-        <v>202.3912559998731</v>
+        <v>345.8071686399275</v>
       </c>
       <c r="E16" t="n">
-        <v>202.3912559998731</v>
+        <v>345.8071686399275</v>
       </c>
       <c r="F16" t="n">
-        <v>202.3912559998731</v>
+        <v>345.8071686399275</v>
       </c>
       <c r="G16" t="n">
-        <v>202.3912559998731</v>
+        <v>202.3912559998729</v>
       </c>
       <c r="H16" t="n">
         <v>73.20601563880585</v>
@@ -5434,52 +5434,52 @@
         <v>73.20601563880585</v>
       </c>
       <c r="J16" t="n">
-        <v>79.32466191965298</v>
+        <v>79.324661919653</v>
       </c>
       <c r="K16" t="n">
-        <v>203.3235852420084</v>
+        <v>203.3235852420085</v>
       </c>
       <c r="L16" t="n">
-        <v>410.617132189591</v>
+        <v>410.6171321895912</v>
       </c>
       <c r="M16" t="n">
-        <v>638.2252920475058</v>
+        <v>638.2252920475063</v>
       </c>
       <c r="N16" t="n">
-        <v>866.4434782183679</v>
+        <v>866.4434782183685</v>
       </c>
       <c r="O16" t="n">
         <v>1063.109528897734</v>
       </c>
       <c r="P16" t="n">
-        <v>1211.436193392006</v>
+        <v>1211.436193392007</v>
       </c>
       <c r="Q16" t="n">
-        <v>1238.29526209475</v>
+        <v>1238.295262094752</v>
       </c>
       <c r="R16" t="n">
-        <v>1238.29526209475</v>
+        <v>1238.295262094752</v>
       </c>
       <c r="S16" t="n">
-        <v>1238.29526209475</v>
+        <v>1055.7929096736</v>
       </c>
       <c r="T16" t="n">
-        <v>1084.937235806431</v>
+        <v>1055.7929096736</v>
       </c>
       <c r="U16" t="n">
-        <v>820.9905529019462</v>
+        <v>1055.7929096736</v>
       </c>
       <c r="V16" t="n">
-        <v>591.5123982804294</v>
+        <v>937.7115282341308</v>
       </c>
       <c r="W16" t="n">
-        <v>327.3015618278388</v>
+        <v>673.5006917815404</v>
       </c>
       <c r="X16" t="n">
-        <v>327.3015618278388</v>
+        <v>470.7174744678931</v>
       </c>
       <c r="Y16" t="n">
-        <v>327.3015618278388</v>
+        <v>470.7174744678931</v>
       </c>
     </row>
     <row r="17">
@@ -5495,34 +5495,34 @@
         <v>1583.639525775091</v>
       </c>
       <c r="D17" t="n">
-        <v>1308.927135646022</v>
+        <v>1308.927135646023</v>
       </c>
       <c r="E17" t="n">
-        <v>1006.692191525459</v>
+        <v>1006.69219152546</v>
       </c>
       <c r="F17" t="n">
-        <v>679.2595952135334</v>
+        <v>679.2595952135339</v>
       </c>
       <c r="G17" t="n">
         <v>345.6907875499987</v>
       </c>
       <c r="H17" t="n">
-        <v>110.6693538551413</v>
+        <v>110.6693538551412</v>
       </c>
       <c r="I17" t="n">
-        <v>73.20601563880585</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="J17" t="n">
-        <v>258.9898176069164</v>
+        <v>258.9898176069163</v>
       </c>
       <c r="K17" t="n">
-        <v>658.1763815223503</v>
+        <v>658.17638152235</v>
       </c>
       <c r="L17" t="n">
         <v>1205.679240092235</v>
       </c>
       <c r="M17" t="n">
-        <v>1831.488208231172</v>
+        <v>1831.488208231171</v>
       </c>
       <c r="N17" t="n">
         <v>2452.791422191916</v>
@@ -5543,22 +5543,22 @@
         <v>3586.856658284235</v>
       </c>
       <c r="T17" t="n">
-        <v>3455.459806291491</v>
+        <v>3455.45980629149</v>
       </c>
       <c r="U17" t="n">
         <v>3285.318664764111</v>
       </c>
       <c r="V17" t="n">
-        <v>3037.809085898222</v>
+        <v>3037.809085898223</v>
       </c>
       <c r="W17" t="n">
-        <v>2768.593739105789</v>
+        <v>2768.59373910579</v>
       </c>
       <c r="X17" t="n">
-        <v>2478.681289322391</v>
+        <v>2478.681289322392</v>
       </c>
       <c r="Y17" t="n">
-        <v>2172.095265824261</v>
+        <v>2172.095265824262</v>
       </c>
     </row>
     <row r="18">
@@ -5589,28 +5589,28 @@
         <v>119.7433661394903</v>
       </c>
       <c r="I18" t="n">
-        <v>73.20601563880585</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="J18" t="n">
-        <v>122.18718251768</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="K18" t="n">
-        <v>448.7081841161899</v>
+        <v>137.906432594863</v>
       </c>
       <c r="L18" t="n">
-        <v>949.1603622465645</v>
+        <v>638.3586107252377</v>
       </c>
       <c r="M18" t="n">
-        <v>1585.143670960737</v>
+        <v>1274.34191943941</v>
       </c>
       <c r="N18" t="n">
-        <v>1779.117628216515</v>
+        <v>1942.864827295306</v>
       </c>
       <c r="O18" t="n">
-        <v>2324.269804102277</v>
+        <v>2098.093307097106</v>
       </c>
       <c r="P18" t="n">
-        <v>2429.521278084463</v>
+        <v>2518.62292203283</v>
       </c>
       <c r="Q18" t="n">
         <v>2657.936419551312</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>479.3391057263145</v>
+        <v>419.5025855012076</v>
       </c>
       <c r="C19" t="n">
-        <v>393.9562312760893</v>
+        <v>334.1197110509823</v>
       </c>
       <c r="D19" t="n">
-        <v>327.3929003414352</v>
+        <v>267.5563801163282</v>
       </c>
       <c r="E19" t="n">
-        <v>263.0331152367237</v>
+        <v>203.1965950116167</v>
       </c>
       <c r="F19" t="n">
-        <v>199.6964762164949</v>
+        <v>185.4658039375075</v>
       </c>
       <c r="G19" t="n">
-        <v>114.6275384697519</v>
+        <v>185.4658039375075</v>
       </c>
       <c r="H19" t="n">
         <v>114.6275384697519</v>
       </c>
       <c r="I19" t="n">
-        <v>73.20601563880585</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="J19" t="n">
-        <v>136.5105320125876</v>
+        <v>136.5105320125877</v>
       </c>
       <c r="K19" t="n">
-        <v>317.6953254278778</v>
+        <v>317.6953254278777</v>
       </c>
       <c r="L19" t="n">
-        <v>582.1747424683952</v>
+        <v>582.174742468395</v>
       </c>
       <c r="M19" t="n">
         <v>866.9687724192447</v>
@@ -5692,7 +5692,7 @@
         <v>1611.737284042549</v>
       </c>
       <c r="Q19" t="n">
-        <v>1695.782222838228</v>
+        <v>1695.782222838229</v>
       </c>
       <c r="R19" t="n">
         <v>1648.165075188308</v>
@@ -5704,19 +5704,19 @@
         <v>1381.868004238608</v>
       </c>
       <c r="U19" t="n">
-        <v>1176.268296227435</v>
+        <v>1176.268296227434</v>
       </c>
       <c r="V19" t="n">
         <v>1005.137116499229</v>
       </c>
       <c r="W19" t="n">
-        <v>799.2732549399504</v>
+        <v>799.27325493995</v>
       </c>
       <c r="X19" t="n">
-        <v>654.8370125196147</v>
+        <v>654.8370125196143</v>
       </c>
       <c r="Y19" t="n">
-        <v>577.4342620788726</v>
+        <v>517.5977418537658</v>
       </c>
     </row>
     <row r="20">
@@ -5732,37 +5732,37 @@
         <v>1583.639525775091</v>
       </c>
       <c r="D20" t="n">
-        <v>1308.927135646022</v>
+        <v>1308.927135646023</v>
       </c>
       <c r="E20" t="n">
-        <v>1006.692191525459</v>
+        <v>1006.69219152546</v>
       </c>
       <c r="F20" t="n">
-        <v>679.2595952135334</v>
+        <v>679.2595952135339</v>
       </c>
       <c r="G20" t="n">
-        <v>345.6907875499983</v>
+        <v>345.6907875499987</v>
       </c>
       <c r="H20" t="n">
         <v>110.6693538551413</v>
       </c>
       <c r="I20" t="n">
-        <v>73.20601563880585</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="J20" t="n">
-        <v>258.9898176069162</v>
+        <v>258.9898176069164</v>
       </c>
       <c r="K20" t="n">
         <v>658.1763815223499</v>
       </c>
       <c r="L20" t="n">
-        <v>1205.679240092234</v>
+        <v>1205.679240092235</v>
       </c>
       <c r="M20" t="n">
         <v>1831.488208231171</v>
       </c>
       <c r="N20" t="n">
-        <v>2452.791422191917</v>
+        <v>2452.791422191916</v>
       </c>
       <c r="O20" t="n">
         <v>2994.282791219484</v>
@@ -5783,19 +5783,19 @@
         <v>3455.45980629149</v>
       </c>
       <c r="U20" t="n">
-        <v>3285.318664764111</v>
+        <v>3285.318664764112</v>
       </c>
       <c r="V20" t="n">
-        <v>3037.809085898222</v>
+        <v>3037.809085898223</v>
       </c>
       <c r="W20" t="n">
-        <v>2768.593739105789</v>
+        <v>2768.593739105791</v>
       </c>
       <c r="X20" t="n">
-        <v>2478.681289322391</v>
+        <v>2478.681289322392</v>
       </c>
       <c r="Y20" t="n">
-        <v>2172.095265824261</v>
+        <v>2172.095265824262</v>
       </c>
     </row>
     <row r="21">
@@ -5826,28 +5826,28 @@
         <v>119.7433661394903</v>
       </c>
       <c r="I21" t="n">
-        <v>73.20601563880585</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="J21" t="n">
-        <v>73.20601563880585</v>
+        <v>190.1641956615503</v>
       </c>
       <c r="K21" t="n">
-        <v>137.906432594863</v>
+        <v>516.6851972600602</v>
       </c>
       <c r="L21" t="n">
-        <v>367.3097855513995</v>
+        <v>1017.137375390435</v>
       </c>
       <c r="M21" t="n">
-        <v>1003.293094265572</v>
+        <v>1269.865530007199</v>
       </c>
       <c r="N21" t="n">
-        <v>1671.816002121468</v>
+        <v>1463.839487262977</v>
       </c>
       <c r="O21" t="n">
-        <v>2216.96817800723</v>
+        <v>2008.991663148739</v>
       </c>
       <c r="P21" t="n">
-        <v>2637.497792942953</v>
+        <v>2429.521278084463</v>
       </c>
       <c r="Q21" t="n">
         <v>2657.936419551312</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>550.17737119407</v>
+        <v>419.5025855012076</v>
       </c>
       <c r="C22" t="n">
-        <v>464.7944967438448</v>
+        <v>401.4578577236162</v>
       </c>
       <c r="D22" t="n">
-        <v>398.2311658091907</v>
+        <v>334.8945267889621</v>
       </c>
       <c r="E22" t="n">
-        <v>333.8713807044792</v>
+        <v>270.5347416842505</v>
       </c>
       <c r="F22" t="n">
-        <v>270.5347416842504</v>
+        <v>270.5347416842505</v>
       </c>
       <c r="G22" t="n">
         <v>185.4658039375074</v>
@@ -5905,19 +5905,19 @@
         <v>114.6275384697519</v>
       </c>
       <c r="I22" t="n">
-        <v>73.20601563880585</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="J22" t="n">
-        <v>136.5105320125878</v>
+        <v>136.5105320125877</v>
       </c>
       <c r="K22" t="n">
-        <v>317.6953254278779</v>
+        <v>317.6953254278778</v>
       </c>
       <c r="L22" t="n">
-        <v>582.1747424683953</v>
+        <v>582.1747424683952</v>
       </c>
       <c r="M22" t="n">
-        <v>866.9687724192452</v>
+        <v>866.9687724192449</v>
       </c>
       <c r="N22" t="n">
         <v>1152.372828683042</v>
@@ -5947,13 +5947,13 @@
         <v>1005.137116499229</v>
       </c>
       <c r="W22" t="n">
-        <v>799.2732549399501</v>
+        <v>799.27325493995</v>
       </c>
       <c r="X22" t="n">
         <v>654.8370125196143</v>
       </c>
       <c r="Y22" t="n">
-        <v>648.2725275466281</v>
+        <v>517.5977418537657</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5963,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1869.048734237821</v>
+        <v>1869.048734237822</v>
       </c>
       <c r="C23" t="n">
-        <v>1583.639525775091</v>
+        <v>1583.639525775092</v>
       </c>
       <c r="D23" t="n">
-        <v>1308.927135646022</v>
+        <v>1308.927135646023</v>
       </c>
       <c r="E23" t="n">
-        <v>1006.692191525459</v>
+        <v>1006.69219152546</v>
       </c>
       <c r="F23" t="n">
-        <v>679.2595952135334</v>
+        <v>679.2595952135342</v>
       </c>
       <c r="G23" t="n">
-        <v>345.6907875499983</v>
+        <v>345.690787549999</v>
       </c>
       <c r="H23" t="n">
-        <v>110.6693538551413</v>
+        <v>110.6693538551414</v>
       </c>
       <c r="I23" t="n">
-        <v>73.20601563880585</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="J23" t="n">
-        <v>258.9898176069164</v>
+        <v>258.9898176069169</v>
       </c>
       <c r="K23" t="n">
-        <v>658.1763815223503</v>
+        <v>658.1763815223508</v>
       </c>
       <c r="L23" t="n">
         <v>1205.679240092235</v>
@@ -5999,7 +5999,7 @@
         <v>1831.488208231172</v>
       </c>
       <c r="N23" t="n">
-        <v>2452.791422191916</v>
+        <v>2452.791422191917</v>
       </c>
       <c r="O23" t="n">
         <v>2994.282791219484</v>
@@ -6014,25 +6014,25 @@
         <v>3660.300781940293</v>
       </c>
       <c r="S23" t="n">
-        <v>3586.856658284235</v>
+        <v>3586.856658284236</v>
       </c>
       <c r="T23" t="n">
-        <v>3455.45980629149</v>
+        <v>3455.459806291491</v>
       </c>
       <c r="U23" t="n">
-        <v>3285.318664764111</v>
+        <v>3285.318664764112</v>
       </c>
       <c r="V23" t="n">
-        <v>3037.809085898222</v>
+        <v>3037.809085898223</v>
       </c>
       <c r="W23" t="n">
-        <v>2768.593739105789</v>
+        <v>2768.593739105791</v>
       </c>
       <c r="X23" t="n">
-        <v>2478.681289322391</v>
+        <v>2478.681289322392</v>
       </c>
       <c r="Y23" t="n">
-        <v>2172.095265824261</v>
+        <v>2172.095265824262</v>
       </c>
     </row>
     <row r="24">
@@ -6063,28 +6063,28 @@
         <v>119.7433661394903</v>
       </c>
       <c r="I24" t="n">
-        <v>73.20601563880585</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="J24" t="n">
-        <v>73.20601563880585</v>
+        <v>190.1641956615503</v>
       </c>
       <c r="K24" t="n">
-        <v>137.906432594863</v>
+        <v>516.6851972600602</v>
       </c>
       <c r="L24" t="n">
-        <v>638.3586107252377</v>
+        <v>1017.137375390435</v>
       </c>
       <c r="M24" t="n">
-        <v>1274.34191943941</v>
+        <v>1269.865530007199</v>
       </c>
       <c r="N24" t="n">
-        <v>1942.864827295306</v>
+        <v>1463.839487262977</v>
       </c>
       <c r="O24" t="n">
-        <v>2488.017003181068</v>
+        <v>2008.991663148739</v>
       </c>
       <c r="P24" t="n">
-        <v>2593.268477163253</v>
+        <v>2429.521278084463</v>
       </c>
       <c r="Q24" t="n">
         <v>2657.936419551312</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>419.5025855012071</v>
+        <v>422.4809470691303</v>
       </c>
       <c r="C25" t="n">
-        <v>393.9562312760893</v>
+        <v>337.0980726189048</v>
       </c>
       <c r="D25" t="n">
-        <v>327.3929003414353</v>
+        <v>270.5347416842507</v>
       </c>
       <c r="E25" t="n">
-        <v>263.0331152367238</v>
+        <v>270.5347416842507</v>
       </c>
       <c r="F25" t="n">
-        <v>199.6964762164951</v>
+        <v>270.5347416842507</v>
       </c>
       <c r="G25" t="n">
-        <v>114.6275384697519</v>
+        <v>185.4658039375076</v>
       </c>
       <c r="H25" t="n">
-        <v>114.6275384697519</v>
+        <v>114.627538469752</v>
       </c>
       <c r="I25" t="n">
-        <v>73.20601563880585</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="J25" t="n">
-        <v>136.5105320125874</v>
+        <v>136.5105320125876</v>
       </c>
       <c r="K25" t="n">
-        <v>317.6953254278775</v>
+        <v>317.6953254278776</v>
       </c>
       <c r="L25" t="n">
         <v>582.1747424683948</v>
       </c>
       <c r="M25" t="n">
-        <v>866.9687724192445</v>
+        <v>866.9687724192443</v>
       </c>
       <c r="N25" t="n">
         <v>1152.372828683041</v>
@@ -6169,28 +6169,28 @@
         <v>1695.782222838228</v>
       </c>
       <c r="R25" t="n">
-        <v>1648.165075188308</v>
+        <v>1648.165075188307</v>
       </c>
       <c r="S25" t="n">
-        <v>1524.009697660468</v>
+        <v>1524.009697660467</v>
       </c>
       <c r="T25" t="n">
-        <v>1381.868004238608</v>
+        <v>1381.868004238607</v>
       </c>
       <c r="U25" t="n">
-        <v>1176.268296227434</v>
+        <v>1176.268296227433</v>
       </c>
       <c r="V25" t="n">
         <v>1005.137116499228</v>
       </c>
       <c r="W25" t="n">
-        <v>799.2732549399495</v>
+        <v>799.2732549399487</v>
       </c>
       <c r="X25" t="n">
-        <v>654.8370125196138</v>
+        <v>654.8370125196129</v>
       </c>
       <c r="Y25" t="n">
-        <v>517.5977418537652</v>
+        <v>520.5761034216885</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6200,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1869.048734237822</v>
+        <v>1869.048734237821</v>
       </c>
       <c r="C26" t="n">
-        <v>1583.639525775092</v>
+        <v>1583.639525775091</v>
       </c>
       <c r="D26" t="n">
-        <v>1308.927135646023</v>
+        <v>1308.927135646022</v>
       </c>
       <c r="E26" t="n">
         <v>1006.69219152546</v>
       </c>
       <c r="F26" t="n">
-        <v>679.259595213534</v>
+        <v>679.2595952135334</v>
       </c>
       <c r="G26" t="n">
-        <v>345.6907875499987</v>
+        <v>345.6907875499988</v>
       </c>
       <c r="H26" t="n">
-        <v>110.6693538551414</v>
+        <v>110.6693538551413</v>
       </c>
       <c r="I26" t="n">
         <v>73.20601563880585</v>
@@ -6263,13 +6263,13 @@
         <v>3037.809085898223</v>
       </c>
       <c r="W26" t="n">
-        <v>2768.593739105791</v>
+        <v>2768.59373910579</v>
       </c>
       <c r="X26" t="n">
-        <v>2478.681289322392</v>
+        <v>2478.681289322391</v>
       </c>
       <c r="Y26" t="n">
-        <v>2172.095265824262</v>
+        <v>2172.095265824261</v>
       </c>
     </row>
     <row r="27">
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>550.1773711940706</v>
+        <v>550.1773711940709</v>
       </c>
       <c r="C28" t="n">
-        <v>464.7944967438452</v>
+        <v>464.7944967438456</v>
       </c>
       <c r="D28" t="n">
-        <v>398.2311658091911</v>
+        <v>398.2311658091914</v>
       </c>
       <c r="E28" t="n">
-        <v>333.8713807044795</v>
+        <v>333.8713807044798</v>
       </c>
       <c r="F28" t="n">
-        <v>270.5347416842507</v>
+        <v>270.534741684251</v>
       </c>
       <c r="G28" t="n">
-        <v>185.4658039375075</v>
+        <v>185.4658039375079</v>
       </c>
       <c r="H28" t="n">
-        <v>114.6275384697519</v>
+        <v>114.627538469752</v>
       </c>
       <c r="I28" t="n">
         <v>73.20601563880585</v>
@@ -6388,10 +6388,10 @@
         <v>317.6953254278776</v>
       </c>
       <c r="L28" t="n">
-        <v>582.1747424683949</v>
+        <v>582.1747424683948</v>
       </c>
       <c r="M28" t="n">
-        <v>866.9687724192445</v>
+        <v>866.9687724192443</v>
       </c>
       <c r="N28" t="n">
         <v>1152.372828683041</v>
@@ -6409,25 +6409,25 @@
         <v>1648.165075188308</v>
       </c>
       <c r="S28" t="n">
-        <v>1648.165075188308</v>
+        <v>1524.009697660467</v>
       </c>
       <c r="T28" t="n">
-        <v>1506.023381766447</v>
+        <v>1512.542789931472</v>
       </c>
       <c r="U28" t="n">
-        <v>1300.423673755274</v>
+        <v>1306.943081920298</v>
       </c>
       <c r="V28" t="n">
-        <v>1129.292494027068</v>
+        <v>1135.811902192093</v>
       </c>
       <c r="W28" t="n">
-        <v>923.4286324677894</v>
+        <v>929.9480406328138</v>
       </c>
       <c r="X28" t="n">
-        <v>785.5117982124773</v>
+        <v>785.511798212478</v>
       </c>
       <c r="Y28" t="n">
-        <v>648.2725275466288</v>
+        <v>648.2725275466291</v>
       </c>
     </row>
     <row r="29">
@@ -6449,10 +6449,10 @@
         <v>1006.69219152546</v>
       </c>
       <c r="F29" t="n">
-        <v>679.2595952135334</v>
+        <v>679.2595952135339</v>
       </c>
       <c r="G29" t="n">
-        <v>345.6907875499988</v>
+        <v>345.6907875499987</v>
       </c>
       <c r="H29" t="n">
         <v>110.6693538551413</v>
@@ -6540,25 +6540,25 @@
         <v>73.20601563880585</v>
       </c>
       <c r="J30" t="n">
-        <v>190.1641956615502</v>
+        <v>73.20601563880585</v>
       </c>
       <c r="K30" t="n">
-        <v>516.6851972600601</v>
+        <v>137.906432594863</v>
       </c>
       <c r="L30" t="n">
-        <v>1017.137375390435</v>
+        <v>638.3586107252377</v>
       </c>
       <c r="M30" t="n">
-        <v>1653.120684104607</v>
+        <v>1274.34191943941</v>
       </c>
       <c r="N30" t="n">
-        <v>1847.094641360385</v>
+        <v>1942.864827295306</v>
       </c>
       <c r="O30" t="n">
-        <v>2008.991663148739</v>
+        <v>2488.017003181068</v>
       </c>
       <c r="P30" t="n">
-        <v>2429.521278084463</v>
+        <v>2637.497792942953</v>
       </c>
       <c r="Q30" t="n">
         <v>2657.936419551312</v>
@@ -6595,13 +6595,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>550.1773711940702</v>
+        <v>550.17737119407</v>
       </c>
       <c r="C31" t="n">
-        <v>464.794496743845</v>
+        <v>464.7944967438448</v>
       </c>
       <c r="D31" t="n">
-        <v>398.2311658091909</v>
+        <v>398.2311658091907</v>
       </c>
       <c r="E31" t="n">
         <v>333.8713807044792</v>
@@ -6619,22 +6619,22 @@
         <v>73.20601563880585</v>
       </c>
       <c r="J31" t="n">
-        <v>136.5105320125876</v>
+        <v>136.5105320125877</v>
       </c>
       <c r="K31" t="n">
-        <v>317.6953254278777</v>
+        <v>317.6953254278774</v>
       </c>
       <c r="L31" t="n">
-        <v>582.1747424683949</v>
+        <v>582.1747424683947</v>
       </c>
       <c r="M31" t="n">
-        <v>866.9687724192447</v>
+        <v>866.9687724192443</v>
       </c>
       <c r="N31" t="n">
         <v>1152.372828683041</v>
       </c>
       <c r="O31" t="n">
-        <v>1406.224749455342</v>
+        <v>1406.224749455341</v>
       </c>
       <c r="P31" t="n">
         <v>1611.737284042549</v>
@@ -6646,25 +6646,25 @@
         <v>1648.165075188308</v>
       </c>
       <c r="S31" t="n">
-        <v>1648.165075188308</v>
+        <v>1524.009697660468</v>
       </c>
       <c r="T31" t="n">
-        <v>1506.023381766448</v>
+        <v>1381.868004238607</v>
       </c>
       <c r="U31" t="n">
-        <v>1300.423673755274</v>
+        <v>1176.268296227434</v>
       </c>
       <c r="V31" t="n">
-        <v>1129.292494027068</v>
+        <v>1005.137116499229</v>
       </c>
       <c r="W31" t="n">
-        <v>923.4286324677895</v>
+        <v>799.2732549399498</v>
       </c>
       <c r="X31" t="n">
-        <v>785.5117982124769</v>
+        <v>785.5117982124767</v>
       </c>
       <c r="Y31" t="n">
-        <v>648.2725275466283</v>
+        <v>648.2725275466281</v>
       </c>
     </row>
     <row r="32">
@@ -6680,7 +6680,7 @@
         <v>1583.639525775091</v>
       </c>
       <c r="D32" t="n">
-        <v>1308.927135646022</v>
+        <v>1308.927135646023</v>
       </c>
       <c r="E32" t="n">
         <v>1006.69219152546</v>
@@ -6728,7 +6728,7 @@
         <v>3586.856658284235</v>
       </c>
       <c r="T32" t="n">
-        <v>3455.45980629149</v>
+        <v>3455.459806291491</v>
       </c>
       <c r="U32" t="n">
         <v>3285.318664764112</v>
@@ -6737,13 +6737,13 @@
         <v>3037.809085898223</v>
       </c>
       <c r="W32" t="n">
-        <v>2768.59373910579</v>
+        <v>2768.593739105791</v>
       </c>
       <c r="X32" t="n">
-        <v>2478.681289322391</v>
+        <v>2478.681289322392</v>
       </c>
       <c r="Y32" t="n">
-        <v>2172.095265824261</v>
+        <v>2172.095265824262</v>
       </c>
     </row>
     <row r="33">
@@ -6777,25 +6777,25 @@
         <v>73.20601563880585</v>
       </c>
       <c r="J33" t="n">
-        <v>190.1641956615502</v>
+        <v>73.20601563880585</v>
       </c>
       <c r="K33" t="n">
-        <v>516.6851972600601</v>
+        <v>137.906432594863</v>
       </c>
       <c r="L33" t="n">
-        <v>1017.137375390435</v>
+        <v>638.3586107252377</v>
       </c>
       <c r="M33" t="n">
-        <v>1653.120684104607</v>
+        <v>1274.34191943941</v>
       </c>
       <c r="N33" t="n">
-        <v>1847.094641360385</v>
+        <v>1942.864827295306</v>
       </c>
       <c r="O33" t="n">
-        <v>2008.991663148739</v>
+        <v>2488.017003181068</v>
       </c>
       <c r="P33" t="n">
-        <v>2429.521278084463</v>
+        <v>2637.497792942953</v>
       </c>
       <c r="Q33" t="n">
         <v>2657.936419551312</v>
@@ -6832,13 +6832,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>550.1773711940704</v>
+        <v>419.5025855012075</v>
       </c>
       <c r="C34" t="n">
-        <v>464.7944967438451</v>
+        <v>334.1197110509822</v>
       </c>
       <c r="D34" t="n">
-        <v>398.2311658091908</v>
+        <v>333.8713807044792</v>
       </c>
       <c r="E34" t="n">
         <v>333.8713807044792</v>
@@ -6856,7 +6856,7 @@
         <v>73.20601563880585</v>
       </c>
       <c r="J34" t="n">
-        <v>136.5105320125875</v>
+        <v>136.5105320125877</v>
       </c>
       <c r="K34" t="n">
         <v>317.6953254278777</v>
@@ -6871,7 +6871,7 @@
         <v>1152.372828683041</v>
       </c>
       <c r="O34" t="n">
-        <v>1406.224749455341</v>
+        <v>1406.224749455342</v>
       </c>
       <c r="P34" t="n">
         <v>1611.737284042549</v>
@@ -6880,28 +6880,28 @@
         <v>1695.782222838228</v>
       </c>
       <c r="R34" t="n">
-        <v>1695.782222838228</v>
+        <v>1648.165075188308</v>
       </c>
       <c r="S34" t="n">
-        <v>1571.626845310388</v>
+        <v>1524.009697660468</v>
       </c>
       <c r="T34" t="n">
-        <v>1429.485151888528</v>
+        <v>1381.868004238607</v>
       </c>
       <c r="U34" t="n">
-        <v>1223.885443877354</v>
+        <v>1176.268296227434</v>
       </c>
       <c r="V34" t="n">
-        <v>1052.754264149149</v>
+        <v>1005.137116499229</v>
       </c>
       <c r="W34" t="n">
-        <v>846.8904025898696</v>
+        <v>799.2732549399498</v>
       </c>
       <c r="X34" t="n">
-        <v>702.4541601695339</v>
+        <v>654.8370125196141</v>
       </c>
       <c r="Y34" t="n">
-        <v>565.2148895036854</v>
+        <v>517.5977418537656</v>
       </c>
     </row>
     <row r="35">
@@ -6923,10 +6923,10 @@
         <v>1006.69219152546</v>
       </c>
       <c r="F35" t="n">
-        <v>679.2595952135339</v>
+        <v>679.259595213534</v>
       </c>
       <c r="G35" t="n">
-        <v>345.6907875499987</v>
+        <v>345.6907875499988</v>
       </c>
       <c r="H35" t="n">
         <v>110.6693538551413</v>
@@ -6935,10 +6935,10 @@
         <v>73.20601563880585</v>
       </c>
       <c r="J35" t="n">
-        <v>258.9898176069164</v>
+        <v>258.9898176069175</v>
       </c>
       <c r="K35" t="n">
-        <v>658.1763815223503</v>
+        <v>658.1763815223511</v>
       </c>
       <c r="L35" t="n">
         <v>1205.679240092235</v>
@@ -6947,7 +6947,7 @@
         <v>1831.488208231172</v>
       </c>
       <c r="N35" t="n">
-        <v>2452.791422191916</v>
+        <v>2452.791422191917</v>
       </c>
       <c r="O35" t="n">
         <v>2994.282791219484</v>
@@ -6968,13 +6968,13 @@
         <v>3455.459806291491</v>
       </c>
       <c r="U35" t="n">
-        <v>3285.318664764112</v>
+        <v>3285.318664764111</v>
       </c>
       <c r="V35" t="n">
         <v>3037.809085898223</v>
       </c>
       <c r="W35" t="n">
-        <v>2768.593739105791</v>
+        <v>2768.59373910579</v>
       </c>
       <c r="X35" t="n">
         <v>2478.681289322392</v>
@@ -7020,19 +7020,19 @@
         <v>516.6851972600601</v>
       </c>
       <c r="L36" t="n">
-        <v>1017.137375390435</v>
+        <v>682.5879265049373</v>
       </c>
       <c r="M36" t="n">
-        <v>1653.120684104607</v>
+        <v>1318.571235219109</v>
       </c>
       <c r="N36" t="n">
-        <v>1847.094641360385</v>
+        <v>1987.094143075005</v>
       </c>
       <c r="O36" t="n">
-        <v>2008.991663148739</v>
+        <v>2532.246318960767</v>
       </c>
       <c r="P36" t="n">
-        <v>2429.521278084463</v>
+        <v>2637.497792942953</v>
       </c>
       <c r="Q36" t="n">
         <v>2657.936419551312</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>419.5025855012071</v>
+        <v>419.5025855012075</v>
       </c>
       <c r="C37" t="n">
-        <v>359.0131888081872</v>
+        <v>419.5025855012075</v>
       </c>
       <c r="D37" t="n">
-        <v>292.4498578735331</v>
+        <v>352.9392545665534</v>
       </c>
       <c r="E37" t="n">
-        <v>292.4498578735331</v>
+        <v>288.5794694618419</v>
       </c>
       <c r="F37" t="n">
-        <v>229.1132188533044</v>
+        <v>225.2428304416131</v>
       </c>
       <c r="G37" t="n">
         <v>144.0442811065614</v>
@@ -7096,16 +7096,16 @@
         <v>136.5105320125877</v>
       </c>
       <c r="K37" t="n">
-        <v>317.6953254278779</v>
+        <v>317.6953254278778</v>
       </c>
       <c r="L37" t="n">
-        <v>582.1747424683952</v>
+        <v>582.1747424683949</v>
       </c>
       <c r="M37" t="n">
-        <v>866.9687724192449</v>
+        <v>866.9687724192447</v>
       </c>
       <c r="N37" t="n">
-        <v>1152.372828683042</v>
+        <v>1152.372828683041</v>
       </c>
       <c r="O37" t="n">
         <v>1406.224749455342</v>
@@ -7123,7 +7123,7 @@
         <v>1524.009697660468</v>
       </c>
       <c r="T37" t="n">
-        <v>1381.868004238607</v>
+        <v>1381.868004238608</v>
       </c>
       <c r="U37" t="n">
         <v>1176.268296227434</v>
@@ -7132,13 +7132,13 @@
         <v>1005.137116499229</v>
       </c>
       <c r="W37" t="n">
-        <v>799.2732549399495</v>
+        <v>799.2732549399501</v>
       </c>
       <c r="X37" t="n">
-        <v>654.8370125196138</v>
+        <v>654.8370125196142</v>
       </c>
       <c r="Y37" t="n">
-        <v>517.5977418537652</v>
+        <v>517.5977418537657</v>
       </c>
     </row>
     <row r="38">
@@ -7157,40 +7157,40 @@
         <v>1308.927135646022</v>
       </c>
       <c r="E38" t="n">
-        <v>1006.692191525459</v>
+        <v>1006.69219152546</v>
       </c>
       <c r="F38" t="n">
-        <v>679.2595952135334</v>
+        <v>679.2595952135339</v>
       </c>
       <c r="G38" t="n">
-        <v>345.6907875499989</v>
+        <v>345.6907875499987</v>
       </c>
       <c r="H38" t="n">
-        <v>110.6693538551414</v>
+        <v>110.6693538551413</v>
       </c>
       <c r="I38" t="n">
         <v>73.20601563880585</v>
       </c>
       <c r="J38" t="n">
-        <v>258.9898176069162</v>
+        <v>258.9898176069175</v>
       </c>
       <c r="K38" t="n">
-        <v>658.1763815223499</v>
+        <v>658.1763815223511</v>
       </c>
       <c r="L38" t="n">
-        <v>1205.679240092234</v>
+        <v>1205.679240092235</v>
       </c>
       <c r="M38" t="n">
-        <v>1831.488208231171</v>
+        <v>1831.488208231172</v>
       </c>
       <c r="N38" t="n">
-        <v>2452.791422191915</v>
+        <v>2452.791422191917</v>
       </c>
       <c r="O38" t="n">
-        <v>2994.282791219483</v>
+        <v>2994.282791219484</v>
       </c>
       <c r="P38" t="n">
-        <v>3418.758763931392</v>
+        <v>3418.758763931393</v>
       </c>
       <c r="Q38" t="n">
         <v>3660.300781940293</v>
@@ -7251,22 +7251,22 @@
         <v>73.20601563880585</v>
       </c>
       <c r="J39" t="n">
-        <v>190.1641956615502</v>
+        <v>73.20601563880585</v>
       </c>
       <c r="K39" t="n">
-        <v>516.6851972600601</v>
+        <v>399.7270172373158</v>
       </c>
       <c r="L39" t="n">
-        <v>1017.137375390435</v>
+        <v>900.1791953676905</v>
       </c>
       <c r="M39" t="n">
-        <v>1192.072670992107</v>
+        <v>1500.518416444581</v>
       </c>
       <c r="N39" t="n">
-        <v>1463.839487262977</v>
+        <v>2169.041324300477</v>
       </c>
       <c r="O39" t="n">
-        <v>2008.991663148739</v>
+        <v>2324.269804102277</v>
       </c>
       <c r="P39" t="n">
         <v>2429.521278084463</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>508.7558483631246</v>
+        <v>419.5025855012075</v>
       </c>
       <c r="C40" t="n">
-        <v>423.3729739128992</v>
+        <v>334.1197110509823</v>
       </c>
       <c r="D40" t="n">
-        <v>356.8096429782451</v>
+        <v>267.5563801163282</v>
       </c>
       <c r="E40" t="n">
-        <v>292.4498578735335</v>
+        <v>263.0331152367236</v>
       </c>
       <c r="F40" t="n">
-        <v>229.1132188533046</v>
+        <v>199.6964762164949</v>
       </c>
       <c r="G40" t="n">
-        <v>144.0442811065614</v>
+        <v>114.6275384697519</v>
       </c>
       <c r="H40" t="n">
-        <v>73.20601563880585</v>
+        <v>114.6275384697519</v>
       </c>
       <c r="I40" t="n">
         <v>73.20601563880585</v>
       </c>
       <c r="J40" t="n">
-        <v>136.5105320125876</v>
+        <v>136.5105320125879</v>
       </c>
       <c r="K40" t="n">
-        <v>317.6953254278777</v>
+        <v>317.6953254278781</v>
       </c>
       <c r="L40" t="n">
-        <v>582.1747424683948</v>
+        <v>582.1747424683954</v>
       </c>
       <c r="M40" t="n">
-        <v>866.9687724192444</v>
+        <v>866.9687724192452</v>
       </c>
       <c r="N40" t="n">
-        <v>1152.372828683041</v>
+        <v>1152.372828683042</v>
       </c>
       <c r="O40" t="n">
-        <v>1406.224749455341</v>
+        <v>1406.224749455342</v>
       </c>
       <c r="P40" t="n">
-        <v>1611.737284042549</v>
+        <v>1611.73728404255</v>
       </c>
       <c r="Q40" t="n">
-        <v>1695.782222838228</v>
+        <v>1695.782222838229</v>
       </c>
       <c r="R40" t="n">
-        <v>1695.782222838228</v>
+        <v>1648.165075188309</v>
       </c>
       <c r="S40" t="n">
-        <v>1613.262960522386</v>
+        <v>1524.009697660469</v>
       </c>
       <c r="T40" t="n">
-        <v>1471.121267100525</v>
+        <v>1381.868004238608</v>
       </c>
       <c r="U40" t="n">
-        <v>1265.521559089352</v>
+        <v>1176.268296227434</v>
       </c>
       <c r="V40" t="n">
-        <v>1094.390379361146</v>
+        <v>1005.137116499229</v>
       </c>
       <c r="W40" t="n">
-        <v>888.5265178018672</v>
+        <v>799.2732549399499</v>
       </c>
       <c r="X40" t="n">
-        <v>744.0902753815313</v>
+        <v>654.8370125196142</v>
       </c>
       <c r="Y40" t="n">
-        <v>606.8510047156827</v>
+        <v>517.5977418537656</v>
       </c>
     </row>
     <row r="41">
@@ -7394,16 +7394,16 @@
         <v>1308.927135646022</v>
       </c>
       <c r="E41" t="n">
-        <v>1006.69219152546</v>
+        <v>1006.692191525459</v>
       </c>
       <c r="F41" t="n">
-        <v>679.2595952135339</v>
+        <v>679.2595952135331</v>
       </c>
       <c r="G41" t="n">
-        <v>345.6907875499987</v>
+        <v>345.6907875499978</v>
       </c>
       <c r="H41" t="n">
-        <v>110.6693538551413</v>
+        <v>110.6693538551414</v>
       </c>
       <c r="I41" t="n">
         <v>73.20601563880585</v>
@@ -7488,25 +7488,25 @@
         <v>73.20601563880585</v>
       </c>
       <c r="J42" t="n">
-        <v>73.20601563880585</v>
+        <v>190.1641956615502</v>
       </c>
       <c r="K42" t="n">
-        <v>137.906432594863</v>
+        <v>364.0829296000341</v>
       </c>
       <c r="L42" t="n">
-        <v>638.3586107252377</v>
+        <v>864.5351077304088</v>
       </c>
       <c r="M42" t="n">
-        <v>1274.34191943941</v>
+        <v>1500.518416444581</v>
       </c>
       <c r="N42" t="n">
-        <v>1942.864827295306</v>
+        <v>2169.041324300477</v>
       </c>
       <c r="O42" t="n">
-        <v>2488.017003181068</v>
+        <v>2324.269804102277</v>
       </c>
       <c r="P42" t="n">
-        <v>2637.497792942953</v>
+        <v>2429.521278084463</v>
       </c>
       <c r="Q42" t="n">
         <v>2657.936419551312</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>423.686910616381</v>
+        <v>550.1773711940707</v>
       </c>
       <c r="C43" t="n">
-        <v>338.3040361661557</v>
+        <v>464.7944967438453</v>
       </c>
       <c r="D43" t="n">
-        <v>271.7407052315016</v>
+        <v>398.2311658091911</v>
       </c>
       <c r="E43" t="n">
-        <v>207.3809201267901</v>
+        <v>333.8713807044795</v>
       </c>
       <c r="F43" t="n">
-        <v>144.0442811065614</v>
+        <v>270.5347416842507</v>
       </c>
       <c r="G43" t="n">
-        <v>144.0442811065614</v>
+        <v>185.4658039375075</v>
       </c>
       <c r="H43" t="n">
-        <v>73.20601563880585</v>
+        <v>114.627538469752</v>
       </c>
       <c r="I43" t="n">
         <v>73.20601563880585</v>
@@ -7570,19 +7570,19 @@
         <v>136.5105320125876</v>
       </c>
       <c r="K43" t="n">
-        <v>317.6953254278777</v>
+        <v>317.6953254278776</v>
       </c>
       <c r="L43" t="n">
-        <v>582.1747424683949</v>
+        <v>582.1747424683948</v>
       </c>
       <c r="M43" t="n">
-        <v>866.9687724192446</v>
+        <v>866.9687724192444</v>
       </c>
       <c r="N43" t="n">
         <v>1152.372828683041</v>
       </c>
       <c r="O43" t="n">
-        <v>1406.224749455342</v>
+        <v>1406.224749455341</v>
       </c>
       <c r="P43" t="n">
         <v>1611.737284042549</v>
@@ -7591,28 +7591,28 @@
         <v>1695.782222838228</v>
       </c>
       <c r="R43" t="n">
-        <v>1648.165075188308</v>
+        <v>1695.782222838228</v>
       </c>
       <c r="S43" t="n">
-        <v>1524.009697660468</v>
+        <v>1571.626845310388</v>
       </c>
       <c r="T43" t="n">
-        <v>1381.868004238607</v>
+        <v>1429.485151888527</v>
       </c>
       <c r="U43" t="n">
-        <v>1176.268296227434</v>
+        <v>1223.885443877354</v>
       </c>
       <c r="V43" t="n">
-        <v>1005.137116499229</v>
+        <v>1052.754264149148</v>
       </c>
       <c r="W43" t="n">
-        <v>799.2732549399494</v>
+        <v>846.8904025898694</v>
       </c>
       <c r="X43" t="n">
-        <v>654.8370125196137</v>
+        <v>785.5117982124775</v>
       </c>
       <c r="Y43" t="n">
-        <v>517.5977418537652</v>
+        <v>648.2725275466289</v>
       </c>
     </row>
     <row r="44">
@@ -7622,10 +7622,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1869.048734237821</v>
+        <v>1869.048734237822</v>
       </c>
       <c r="C44" t="n">
-        <v>1583.639525775091</v>
+        <v>1583.639525775092</v>
       </c>
       <c r="D44" t="n">
         <v>1308.927135646023</v>
@@ -7634,13 +7634,13 @@
         <v>1006.69219152546</v>
       </c>
       <c r="F44" t="n">
-        <v>679.2595952135339</v>
+        <v>679.259595213534</v>
       </c>
       <c r="G44" t="n">
         <v>345.6907875499987</v>
       </c>
       <c r="H44" t="n">
-        <v>110.6693538551413</v>
+        <v>110.6693538551414</v>
       </c>
       <c r="I44" t="n">
         <v>73.20601563880585</v>
@@ -7649,34 +7649,34 @@
         <v>258.9898176069162</v>
       </c>
       <c r="K44" t="n">
-        <v>658.1763815223507</v>
+        <v>658.1763815223499</v>
       </c>
       <c r="L44" t="n">
         <v>1205.679240092235</v>
       </c>
       <c r="M44" t="n">
-        <v>1831.488208231172</v>
+        <v>1831.488208231171</v>
       </c>
       <c r="N44" t="n">
         <v>2452.791422191916</v>
       </c>
       <c r="O44" t="n">
-        <v>2994.282791219484</v>
+        <v>2994.282791219483</v>
       </c>
       <c r="P44" t="n">
-        <v>3418.758763931392</v>
+        <v>3418.758763931393</v>
       </c>
       <c r="Q44" t="n">
-        <v>3660.300781940292</v>
+        <v>3660.300781940293</v>
       </c>
       <c r="R44" t="n">
-        <v>3660.300781940292</v>
+        <v>3660.300781940293</v>
       </c>
       <c r="S44" t="n">
         <v>3586.856658284235</v>
       </c>
       <c r="T44" t="n">
-        <v>3455.459806291491</v>
+        <v>3455.459806291492</v>
       </c>
       <c r="U44" t="n">
         <v>3285.318664764112</v>
@@ -7728,13 +7728,13 @@
         <v>190.1641956615502</v>
       </c>
       <c r="K45" t="n">
-        <v>254.8646126176073</v>
+        <v>516.6851972600601</v>
       </c>
       <c r="L45" t="n">
-        <v>755.3167907479819</v>
+        <v>1017.137375390435</v>
       </c>
       <c r="M45" t="n">
-        <v>1269.865530007199</v>
+        <v>1192.072670992107</v>
       </c>
       <c r="N45" t="n">
         <v>1463.839487262977</v>
@@ -7780,46 +7780,46 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>419.5025855012071</v>
+        <v>419.5025855012061</v>
       </c>
       <c r="C46" t="n">
-        <v>334.1197110509818</v>
+        <v>334.1197110509807</v>
       </c>
       <c r="D46" t="n">
-        <v>267.5563801163277</v>
+        <v>267.5563801163265</v>
       </c>
       <c r="E46" t="n">
-        <v>229.1132188533044</v>
+        <v>248.8024429577355</v>
       </c>
       <c r="F46" t="n">
-        <v>229.1132188533044</v>
+        <v>185.4658039375076</v>
       </c>
       <c r="G46" t="n">
-        <v>144.0442811065614</v>
+        <v>185.4658039375076</v>
       </c>
       <c r="H46" t="n">
-        <v>73.20601563880585</v>
+        <v>114.627538469752</v>
       </c>
       <c r="I46" t="n">
         <v>73.20601563880585</v>
       </c>
       <c r="J46" t="n">
-        <v>136.5105320125877</v>
+        <v>136.5105320125876</v>
       </c>
       <c r="K46" t="n">
-        <v>317.6953254278777</v>
+        <v>317.6953254278776</v>
       </c>
       <c r="L46" t="n">
-        <v>582.1747424683949</v>
+        <v>582.1747424683948</v>
       </c>
       <c r="M46" t="n">
-        <v>866.9687724192446</v>
+        <v>866.9687724192443</v>
       </c>
       <c r="N46" t="n">
         <v>1152.372828683041</v>
       </c>
       <c r="O46" t="n">
-        <v>1406.224749455342</v>
+        <v>1406.224749455341</v>
       </c>
       <c r="P46" t="n">
         <v>1611.737284042549</v>
@@ -7834,22 +7834,22 @@
         <v>1524.009697660468</v>
       </c>
       <c r="T46" t="n">
-        <v>1381.868004238608</v>
+        <v>1381.868004238607</v>
       </c>
       <c r="U46" t="n">
-        <v>1176.268296227434</v>
+        <v>1176.268296227433</v>
       </c>
       <c r="V46" t="n">
-        <v>1005.137116499229</v>
+        <v>1005.137116499228</v>
       </c>
       <c r="W46" t="n">
-        <v>799.2732549399498</v>
+        <v>799.2732549399489</v>
       </c>
       <c r="X46" t="n">
-        <v>654.8370125196141</v>
+        <v>654.837012519613</v>
       </c>
       <c r="Y46" t="n">
-        <v>517.5977418537652</v>
+        <v>517.5977418537643</v>
       </c>
     </row>
   </sheetData>
@@ -8064,19 +8064,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8298,7 +8298,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>369.8307175917693</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
         <v>383.1483227996774</v>
@@ -8310,10 +8310,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8541,13 +8541,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>301.2485028631349</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
         <v>139.9817740860215</v>
@@ -8769,7 +8769,7 @@
         <v>7.951459559858961</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>44.6760765451512</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8784,7 +8784,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>44.67607654515137</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -9003,7 +9003,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>7.951459559858961</v>
+        <v>7.951459559858932</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9021,7 +9021,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>44.67607654515137</v>
+        <v>44.67607654515086</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -9240,10 +9240,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>57.42738570013584</v>
+        <v>7.951459559858932</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9252,16 +9252,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>120.0756271819432</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9410,7 +9410,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119855</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
         <v>380.8001812627454</v>
@@ -9477,19 +9477,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>7.951459559858961</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>97.05365320867321</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>78.57864546978951</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9498,7 +9498,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9714,28 +9714,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>7.951459559858961</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>78.57864546978956</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>44.6760765451514</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -10188,10 +10188,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>7.951459559858961</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10200,16 +10200,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>6.735900996519575</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>44.67607654515137</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10425,10 +10425,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>7.951459559858961</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10437,16 +10437,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>6.735900996519575</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>44.67607654515137</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172075</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10668,22 +10668,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>32.9116090554819</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>6.735900996519575</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172075</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10841,7 +10841,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599059</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10899,7 +10899,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>7.951459559858961</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10908,16 +10908,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>429.7009348234527</v>
       </c>
       <c r="N39" t="n">
-        <v>78.57864546978979</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11136,10 +11136,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>7.951459559858961</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>110.3215323054816</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11151,13 +11151,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>44.67607654515137</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11297,7 +11297,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711655</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11376,16 +11376,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>343.0438824823684</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>78.57864546978979</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>321.929765728121</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>130.4731875638753</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>187.8463886171957</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>226.2032352564837</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>324.2866984688866</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>180.882210289262</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>361.2836684075272</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23416,16 +23416,16 @@
         <v>154.8777099334109</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>142.2925508501015</v>
       </c>
       <c r="D13" t="n">
-        <v>123.6612027696859</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>121.4796923980428</v>
       </c>
       <c r="F13" t="n">
-        <v>108.7533722274253</v>
+        <v>120.4667777744049</v>
       </c>
       <c r="G13" t="n">
         <v>141.981753513654</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77081274701497</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>104.9044813177992</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>180.67732889694</v>
+        <v>180.6773288969401</v>
       </c>
       <c r="T13" t="n">
-        <v>198.4837816320202</v>
+        <v>198.4837816320203</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,10 +23476,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>51.85084803937723</v>
       </c>
       <c r="X13" t="n">
-        <v>200.7553851405107</v>
+        <v>200.7553851405108</v>
       </c>
       <c r="Y13" t="n">
         <v>193.6303831035684</v>
@@ -23495,22 +23495,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>31.19536422245796</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>356.9760998237354</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>387.9966247312782</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>290.4347245022873</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23546,13 +23546,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>187.8463886171957</v>
       </c>
       <c r="U14" t="n">
-        <v>226.2032352564837</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>252.2527171779162</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>154.877709933411</v>
+        <v>154.8777099334109</v>
       </c>
       <c r="C16" t="n">
         <v>142.2925508501015</v>
@@ -23659,19 +23659,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>121.4796923980429</v>
+        <v>121.4796923980428</v>
       </c>
       <c r="F16" t="n">
         <v>120.4667777744049</v>
       </c>
       <c r="G16" t="n">
-        <v>141.9817535136541</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77081274701509</v>
+        <v>98.770812747015</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>104.9044813177993</v>
+        <v>104.9044813177992</v>
       </c>
       <c r="S16" t="n">
-        <v>180.6773288969401</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>46.65933560658448</v>
+        <v>198.4837816320203</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>261.3072160754402</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>110.2828054502272</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>200.7553851405108</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>193.6303831035685</v>
+        <v>193.6303831035684</v>
       </c>
     </row>
     <row r="17">
@@ -23899,13 +23899,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>45.14978946665833</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>84.2182483692756</v>
       </c>
       <c r="H19" t="n">
-        <v>70.12988281307794</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>59.23815502285518</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>66.66476520590757</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24136,7 +24136,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>62.70327263002646</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>129.3680378359338</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24364,22 +24364,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>59.23815502285643</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>63.71618725366446</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>62.70327263002653</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>70.12988281307794</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>2.948577952245798</v>
       </c>
     </row>
     <row r="26">
@@ -24649,10 +24649,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>122.9138237525617</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>129.3680378359366</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>6.454214083374154</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>122.9138237525617</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>6.454214083372919</v>
+        <v>129.368037835934</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25072,16 +25072,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>82.22706166251362</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>65.65185058226909</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>63.71618725366439</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>47.14097617342078</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>24.64454297963336</v>
+        <v>84.52904570572304</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>63.71618725366439</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>3.831684527574453</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>41.00730760263662</v>
+        <v>41.0073076026366</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25555,7 +25555,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>59.23815502285575</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>70.12988281307793</v>
       </c>
       <c r="I40" t="n">
-        <v>41.00730760263667</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>47.14097617342084</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>41.2197540598776</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25783,7 +25783,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>4.142481864022067</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25798,13 +25798,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>84.2182483692756</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>41.00730760263662</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>47.14097617342085</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25849,7 +25849,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>82.2270616625145</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26029,19 +26029,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>25.65745760327134</v>
+        <v>45.14978946665934</v>
       </c>
       <c r="F46" t="n">
-        <v>62.70327263002646</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>84.21824836927567</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>41.00730760263662</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>811706.0229695142</v>
+        <v>811706.0229695146</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>923928.7944051181</v>
+        <v>923928.794405118</v>
       </c>
     </row>
     <row r="8">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>923928.7944051181</v>
+        <v>923928.794405118</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>923928.7944051181</v>
+        <v>923928.794405118</v>
       </c>
     </row>
   </sheetData>
@@ -26317,34 +26317,34 @@
         <v>533677.1504117842</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.1504117842</v>
+        <v>533677.1504117841</v>
       </c>
       <c r="E2" t="n">
-        <v>465345.5531732326</v>
+        <v>465345.5531732327</v>
       </c>
       <c r="F2" t="n">
         <v>465345.5531732326</v>
       </c>
       <c r="G2" t="n">
+        <v>531659.0090215437</v>
+      </c>
+      <c r="H2" t="n">
+        <v>531659.0090215437</v>
+      </c>
+      <c r="I2" t="n">
         <v>531659.0090215435</v>
       </c>
-      <c r="H2" t="n">
-        <v>531659.0090215431</v>
-      </c>
-      <c r="I2" t="n">
-        <v>531659.0090215437</v>
-      </c>
       <c r="J2" t="n">
-        <v>531659.0090215437</v>
+        <v>531659.0090215435</v>
       </c>
       <c r="K2" t="n">
-        <v>531659.0090215428</v>
+        <v>531659.0090215432</v>
       </c>
       <c r="L2" t="n">
-        <v>531659.0090215434</v>
+        <v>531659.0090215439</v>
       </c>
       <c r="M2" t="n">
-        <v>531659.0090215434</v>
+        <v>531659.0090215435</v>
       </c>
       <c r="N2" t="n">
         <v>531659.0090215434</v>
@@ -26353,7 +26353,7 @@
         <v>531659.0090215437</v>
       </c>
       <c r="P2" t="n">
-        <v>531659.0090215432</v>
+        <v>531659.0090215437</v>
       </c>
     </row>
     <row r="3">
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>46210.8041155028</v>
+        <v>46210.80411550272</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>83023.35879792729</v>
+        <v>83023.3587979273</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>46210.8041155028</v>
+        <v>46210.80411550272</v>
       </c>
       <c r="M3" t="n">
         <v>167978.674170194</v>
@@ -26402,10 +26402,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19963.41619882111</v>
+        <v>19963.41619882101</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26424,10 +26424,10 @@
         <v>304227.7958470787</v>
       </c>
       <c r="E4" t="n">
-        <v>50146.4577912173</v>
+        <v>50146.45779121726</v>
       </c>
       <c r="F4" t="n">
-        <v>50146.4577912172</v>
+        <v>50146.45779121726</v>
       </c>
       <c r="G4" t="n">
         <v>108519.1209040082</v>
@@ -26436,7 +26436,7 @@
         <v>108519.1209040082</v>
       </c>
       <c r="I4" t="n">
-        <v>108519.1209040082</v>
+        <v>108519.1209040081</v>
       </c>
       <c r="J4" t="n">
         <v>108519.1209040081</v>
@@ -26454,10 +26454,10 @@
         <v>108519.1209040082</v>
       </c>
       <c r="O4" t="n">
-        <v>108519.1209040082</v>
+        <v>108519.1209040081</v>
       </c>
       <c r="P4" t="n">
-        <v>108519.1209040082</v>
+        <v>108519.1209040081</v>
       </c>
     </row>
     <row r="5">
@@ -26479,13 +26479,13 @@
         <v>70487.90653947927</v>
       </c>
       <c r="F5" t="n">
-        <v>70487.90653947926</v>
+        <v>70487.90653947927</v>
       </c>
       <c r="G5" t="n">
-        <v>75344.02665346202</v>
+        <v>75344.02665346203</v>
       </c>
       <c r="H5" t="n">
-        <v>75344.02665346202</v>
+        <v>75344.02665346203</v>
       </c>
       <c r="I5" t="n">
         <v>75344.02665346202</v>
@@ -26503,10 +26503,10 @@
         <v>75344.02665346202</v>
       </c>
       <c r="N5" t="n">
+        <v>75344.02665346202</v>
+      </c>
+      <c r="O5" t="n">
         <v>75344.026653462</v>
-      </c>
-      <c r="O5" t="n">
-        <v>75344.02665346202</v>
       </c>
       <c r="P5" t="n">
         <v>75344.026653462</v>
@@ -26525,43 +26525,43 @@
         <v>181168.0858009438</v>
       </c>
       <c r="D6" t="n">
-        <v>181168.0858009438</v>
+        <v>181168.0858009437</v>
       </c>
       <c r="E6" t="n">
-        <v>-346519.4751468304</v>
+        <v>-346782.2889823631</v>
       </c>
       <c r="F6" t="n">
-        <v>344711.1888425362</v>
+        <v>344448.3750070033</v>
       </c>
       <c r="G6" t="n">
-        <v>301585.0573485705</v>
+        <v>301577.2952663006</v>
       </c>
       <c r="H6" t="n">
-        <v>347795.8614640728</v>
+        <v>347788.0993818033</v>
       </c>
       <c r="I6" t="n">
-        <v>347795.8614640734</v>
+        <v>347788.0993818032</v>
       </c>
       <c r="J6" t="n">
-        <v>264772.5026661463</v>
+        <v>264764.740583876</v>
       </c>
       <c r="K6" t="n">
-        <v>347795.8614640725</v>
+        <v>347788.0993818027</v>
       </c>
       <c r="L6" t="n">
-        <v>301585.0573485704</v>
+        <v>301577.2952663008</v>
       </c>
       <c r="M6" t="n">
-        <v>179817.1872938792</v>
+        <v>179809.4252116091</v>
       </c>
       <c r="N6" t="n">
-        <v>347795.8614640733</v>
+        <v>347788.099381803</v>
       </c>
       <c r="O6" t="n">
-        <v>327832.4452652523</v>
+        <v>327824.6831829823</v>
       </c>
       <c r="P6" t="n">
-        <v>347795.8614640731</v>
+        <v>347788.0993818034</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>24.95427024852642</v>
+        <v>24.95427024852638</v>
       </c>
       <c r="F2" t="n">
-        <v>24.95427024852631</v>
+        <v>24.95427024852638</v>
       </c>
       <c r="G2" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="H2" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="I2" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="J2" t="n">
         <v>82.71777539290471</v>
@@ -26716,16 +26716,16 @@
         <v>82.71777539290478</v>
       </c>
       <c r="M2" t="n">
-        <v>82.71777539290478</v>
+        <v>82.7177753929048</v>
       </c>
       <c r="N2" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290483</v>
       </c>
       <c r="O2" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="P2" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
     </row>
     <row r="3">
@@ -26747,13 +26747,13 @@
         <v>585.0208306634612</v>
       </c>
       <c r="F3" t="n">
-        <v>585.0208306634612</v>
+        <v>585.0208306634613</v>
       </c>
       <c r="G3" t="n">
-        <v>585.0208306634612</v>
+        <v>585.0208306634613</v>
       </c>
       <c r="H3" t="n">
-        <v>585.0208306634612</v>
+        <v>585.0208306634613</v>
       </c>
       <c r="I3" t="n">
         <v>585.0208306634612</v>
@@ -26799,16 +26799,16 @@
         <v>915.0751954850732</v>
       </c>
       <c r="F4" t="n">
-        <v>915.0751954850731</v>
+        <v>915.0751954850732</v>
       </c>
       <c r="G4" t="n">
-        <v>915.0751954850732</v>
+        <v>915.0751954850733</v>
       </c>
       <c r="H4" t="n">
-        <v>915.0751954850732</v>
+        <v>915.0751954850733</v>
       </c>
       <c r="I4" t="n">
-        <v>915.0751954850732</v>
+        <v>915.0751954850733</v>
       </c>
       <c r="J4" t="n">
         <v>915.0751954850732</v>
@@ -26829,7 +26829,7 @@
         <v>915.0751954850732</v>
       </c>
       <c r="P4" t="n">
-        <v>915.0751954850731</v>
+        <v>915.0751954850732</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>24.95427024852642</v>
+        <v>24.95427024852638</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>57.7635051443785</v>
+        <v>57.7635051443784</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.95427024852632</v>
+        <v>24.95427024852638</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>7.105427357601002e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>57.7635051443785</v>
+        <v>57.7635051443784</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26944,10 +26944,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.95427024852638</v>
+        <v>24.95427024852627</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>7.105427357601002e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.0142888776589</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.95427024852642</v>
+        <v>24.95427024852638</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>57.7635051443785</v>
+        <v>57.7635051443784</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.95427024852632</v>
+        <v>24.95427024852638</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>7.105427357601002e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27388,7 +27388,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>165.8617568640524</v>
+        <v>301.251446211517</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27433,7 +27433,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>236.8662243141514</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27455,28 +27455,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>108.8178501202931</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27512,19 +27512,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>176.6302781386795</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27588,7 +27588,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>119.7495544039028</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
         <v>286.3190293564909</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>110.3886183277161</v>
       </c>
     </row>
     <row r="5">
@@ -27619,7 +27619,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27628,13 +27628,13 @@
         <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
-        <v>344.2880590747468</v>
+        <v>224.9573404408503</v>
       </c>
       <c r="H5" t="n">
         <v>98.46051323810809</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -27692,16 +27692,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>35.08516202225957</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -27710,7 +27710,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
@@ -27743,7 +27743,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
@@ -27752,10 +27752,10 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>35.05512184979517</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -27774,10 +27774,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>59.05078607424915</v>
       </c>
       <c r="D7" t="n">
-        <v>40.41943799383367</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27871,7 +27871,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W8" t="n">
         <v>108.226679839754</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>201.5644868610308</v>
       </c>
       <c r="Y8" t="n">
-        <v>305.4078241810982</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27932,7 +27932,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>76.22836642528364</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -27941,13 +27941,13 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
@@ -27980,25 +27980,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>12.88408770328761</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28014,7 +28014,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284433</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>24.95427024852642</v>
+        <v>24.95427024852638</v>
       </c>
       <c r="C11" t="n">
-        <v>24.95427024852642</v>
+        <v>24.95427024852638</v>
       </c>
       <c r="D11" t="n">
-        <v>24.95427024852642</v>
+        <v>24.95427024852638</v>
       </c>
       <c r="E11" t="n">
-        <v>24.95427024852642</v>
+        <v>24.95427024852638</v>
       </c>
       <c r="F11" t="n">
-        <v>24.95427024852642</v>
+        <v>24.95427024852638</v>
       </c>
       <c r="G11" t="n">
-        <v>24.95427024852642</v>
+        <v>24.95427024852638</v>
       </c>
       <c r="H11" t="n">
-        <v>24.95427024852642</v>
+        <v>24.95427024852638</v>
       </c>
       <c r="I11" t="n">
-        <v>24.95427024852642</v>
+        <v>24.95427024852638</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>2.135189281195323</v>
       </c>
       <c r="S11" t="n">
-        <v>24.95427024852642</v>
+        <v>24.95427024852638</v>
       </c>
       <c r="T11" t="n">
-        <v>24.95427024852642</v>
+        <v>24.95427024852638</v>
       </c>
       <c r="U11" t="n">
-        <v>24.95427024852642</v>
+        <v>24.95427024852638</v>
       </c>
       <c r="V11" t="n">
-        <v>24.95427024852642</v>
+        <v>24.95427024852638</v>
       </c>
       <c r="W11" t="n">
-        <v>24.95427024852642</v>
+        <v>24.95427024852638</v>
       </c>
       <c r="X11" t="n">
-        <v>24.95427024852642</v>
+        <v>24.95427024852638</v>
       </c>
       <c r="Y11" t="n">
-        <v>24.95427024852642</v>
+        <v>24.95427024852638</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>24.95427024852642</v>
+        <v>24.95427024852638</v>
       </c>
       <c r="C13" t="n">
-        <v>24.95427024852642</v>
+        <v>24.95427024852638</v>
       </c>
       <c r="D13" t="n">
-        <v>24.95427024852642</v>
+        <v>24.95427024852638</v>
       </c>
       <c r="E13" t="n">
-        <v>24.95427024852642</v>
+        <v>24.95427024852638</v>
       </c>
       <c r="F13" t="n">
-        <v>24.95427024852642</v>
+        <v>24.95427024852638</v>
       </c>
       <c r="G13" t="n">
-        <v>24.95427024852642</v>
+        <v>24.95427024852638</v>
       </c>
       <c r="H13" t="n">
-        <v>24.95427024852642</v>
+        <v>24.95427024852638</v>
       </c>
       <c r="I13" t="n">
-        <v>24.95427024852642</v>
+        <v>24.95427024852638</v>
       </c>
       <c r="J13" t="n">
-        <v>24.95427024852642</v>
+        <v>24.95427024852638</v>
       </c>
       <c r="K13" t="n">
-        <v>24.95427024852642</v>
+        <v>24.95427024852638</v>
       </c>
       <c r="L13" t="n">
-        <v>24.95427024852642</v>
+        <v>24.95427024852638</v>
       </c>
       <c r="M13" t="n">
-        <v>24.95427024852642</v>
+        <v>24.95427024852638</v>
       </c>
       <c r="N13" t="n">
-        <v>24.95427024852642</v>
+        <v>24.95427024852638</v>
       </c>
       <c r="O13" t="n">
-        <v>24.95427024852642</v>
+        <v>24.95427024852638</v>
       </c>
       <c r="P13" t="n">
-        <v>24.95427024852642</v>
+        <v>24.95427024852638</v>
       </c>
       <c r="Q13" t="n">
-        <v>24.95427024852642</v>
+        <v>24.95427024852638</v>
       </c>
       <c r="R13" t="n">
-        <v>24.95427024852642</v>
+        <v>24.95427024852638</v>
       </c>
       <c r="S13" t="n">
-        <v>24.95427024852642</v>
+        <v>24.95427024852638</v>
       </c>
       <c r="T13" t="n">
-        <v>24.95427024852642</v>
+        <v>24.95427024852638</v>
       </c>
       <c r="U13" t="n">
-        <v>24.95427024852642</v>
+        <v>24.95427024852638</v>
       </c>
       <c r="V13" t="n">
-        <v>24.95427024852642</v>
+        <v>24.95427024852638</v>
       </c>
       <c r="W13" t="n">
-        <v>24.95427024852642</v>
+        <v>24.95427024852638</v>
       </c>
       <c r="X13" t="n">
-        <v>24.95427024852642</v>
+        <v>24.95427024852638</v>
       </c>
       <c r="Y13" t="n">
-        <v>24.95427024852642</v>
+        <v>24.95427024852638</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>24.95427024852631</v>
+        <v>24.95427024852638</v>
       </c>
       <c r="C14" t="n">
-        <v>24.95427024852631</v>
+        <v>24.95427024852638</v>
       </c>
       <c r="D14" t="n">
-        <v>24.95427024852631</v>
+        <v>24.95427024852638</v>
       </c>
       <c r="E14" t="n">
-        <v>24.95427024852631</v>
+        <v>24.95427024852638</v>
       </c>
       <c r="F14" t="n">
-        <v>24.95427024852631</v>
+        <v>24.95427024852638</v>
       </c>
       <c r="G14" t="n">
-        <v>24.95427024852631</v>
+        <v>24.95427024852638</v>
       </c>
       <c r="H14" t="n">
-        <v>24.95427024852631</v>
+        <v>24.95427024852638</v>
       </c>
       <c r="I14" t="n">
-        <v>24.95427024852631</v>
+        <v>24.95427024852638</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28372,28 +28372,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>2.135189281195323</v>
+        <v>2.135189281195295</v>
       </c>
       <c r="S14" t="n">
-        <v>24.95427024852631</v>
+        <v>24.95427024852638</v>
       </c>
       <c r="T14" t="n">
-        <v>24.95427024852631</v>
+        <v>24.95427024852638</v>
       </c>
       <c r="U14" t="n">
-        <v>24.95427024852631</v>
+        <v>24.95427024852638</v>
       </c>
       <c r="V14" t="n">
-        <v>24.95427024852631</v>
+        <v>24.95427024852638</v>
       </c>
       <c r="W14" t="n">
-        <v>24.95427024852631</v>
+        <v>24.95427024852638</v>
       </c>
       <c r="X14" t="n">
-        <v>24.95427024852631</v>
+        <v>24.95427024852638</v>
       </c>
       <c r="Y14" t="n">
-        <v>24.95427024852631</v>
+        <v>24.95427024852638</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>24.95427024852631</v>
+        <v>24.95427024852638</v>
       </c>
       <c r="C16" t="n">
-        <v>24.95427024852631</v>
+        <v>24.95427024852638</v>
       </c>
       <c r="D16" t="n">
-        <v>24.95427024852631</v>
+        <v>24.95427024852638</v>
       </c>
       <c r="E16" t="n">
-        <v>24.95427024852631</v>
+        <v>24.95427024852638</v>
       </c>
       <c r="F16" t="n">
-        <v>24.95427024852631</v>
+        <v>24.95427024852638</v>
       </c>
       <c r="G16" t="n">
-        <v>24.95427024852631</v>
+        <v>24.95427024852638</v>
       </c>
       <c r="H16" t="n">
-        <v>24.95427024852631</v>
+        <v>24.95427024852638</v>
       </c>
       <c r="I16" t="n">
-        <v>24.95427024852631</v>
+        <v>24.95427024852638</v>
       </c>
       <c r="J16" t="n">
-        <v>24.95427024852631</v>
+        <v>24.95427024852638</v>
       </c>
       <c r="K16" t="n">
-        <v>24.95427024852631</v>
+        <v>24.95427024852638</v>
       </c>
       <c r="L16" t="n">
-        <v>24.95427024852631</v>
+        <v>24.95427024852638</v>
       </c>
       <c r="M16" t="n">
-        <v>24.95427024852631</v>
+        <v>24.95427024852638</v>
       </c>
       <c r="N16" t="n">
-        <v>24.95427024852631</v>
+        <v>24.95427024852638</v>
       </c>
       <c r="O16" t="n">
-        <v>24.95427024852631</v>
+        <v>24.95427024852638</v>
       </c>
       <c r="P16" t="n">
-        <v>24.95427024852631</v>
+        <v>24.95427024852638</v>
       </c>
       <c r="Q16" t="n">
-        <v>24.95427024852631</v>
+        <v>24.95427024852638</v>
       </c>
       <c r="R16" t="n">
-        <v>24.95427024852631</v>
+        <v>24.95427024852638</v>
       </c>
       <c r="S16" t="n">
-        <v>24.95427024852631</v>
+        <v>24.95427024852638</v>
       </c>
       <c r="T16" t="n">
-        <v>24.95427024852631</v>
+        <v>24.95427024852638</v>
       </c>
       <c r="U16" t="n">
-        <v>24.95427024852631</v>
+        <v>24.95427024852638</v>
       </c>
       <c r="V16" t="n">
-        <v>24.95427024852631</v>
+        <v>24.95427024852638</v>
       </c>
       <c r="W16" t="n">
-        <v>24.95427024852631</v>
+        <v>24.95427024852638</v>
       </c>
       <c r="X16" t="n">
-        <v>24.95427024852631</v>
+        <v>24.95427024852638</v>
       </c>
       <c r="Y16" t="n">
-        <v>24.95427024852631</v>
+        <v>24.95427024852638</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="C17" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="D17" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="E17" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="F17" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="G17" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="H17" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="I17" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28609,28 +28609,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>2.135189281195323</v>
+        <v>2.135189281195295</v>
       </c>
       <c r="S17" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="T17" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="U17" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="V17" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="W17" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="X17" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="Y17" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290478</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="C19" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="D19" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="E19" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="F19" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="G19" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="H19" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="I19" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="J19" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="K19" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="L19" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="M19" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="N19" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="O19" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="P19" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="Q19" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="R19" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="S19" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="T19" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="U19" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="V19" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="W19" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="X19" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="Y19" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290478</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="C20" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="D20" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="E20" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="F20" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="G20" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="H20" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="I20" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28846,28 +28846,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>2.135189281195323</v>
+        <v>2.135189281195295</v>
       </c>
       <c r="S20" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="T20" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="U20" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="V20" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="W20" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="X20" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="Y20" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290478</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="C22" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="D22" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="E22" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="F22" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="G22" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="H22" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="I22" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="J22" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="K22" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="L22" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="M22" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="N22" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="O22" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="P22" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="Q22" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="R22" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="S22" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="T22" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="U22" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="V22" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="W22" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="X22" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="Y22" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290478</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="C23" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="D23" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="E23" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="F23" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="G23" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="H23" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="I23" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>2.135189281195323</v>
       </c>
       <c r="S23" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="T23" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="U23" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="V23" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="W23" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="X23" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="Y23" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290471</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="C25" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="D25" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="E25" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="F25" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="G25" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="H25" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="I25" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="J25" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="K25" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="L25" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="M25" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="N25" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="O25" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="P25" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="Q25" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="R25" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="S25" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="T25" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="U25" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="V25" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="W25" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="X25" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="Y25" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290471</v>
       </c>
     </row>
     <row r="26">
@@ -29557,7 +29557,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>2.135189281196701</v>
+        <v>2.135189281196674</v>
       </c>
       <c r="S29" t="n">
         <v>82.71777539290478</v>
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>82.71777539290478</v>
+        <v>82.7177753929048</v>
       </c>
       <c r="C35" t="n">
-        <v>82.71777539290478</v>
+        <v>82.7177753929048</v>
       </c>
       <c r="D35" t="n">
-        <v>82.71777539290478</v>
+        <v>82.7177753929048</v>
       </c>
       <c r="E35" t="n">
-        <v>82.71777539290478</v>
+        <v>82.7177753929048</v>
       </c>
       <c r="F35" t="n">
-        <v>82.71777539290478</v>
+        <v>82.7177753929048</v>
       </c>
       <c r="G35" t="n">
-        <v>82.71777539290478</v>
+        <v>82.7177753929048</v>
       </c>
       <c r="H35" t="n">
-        <v>82.71777539290478</v>
+        <v>82.7177753929048</v>
       </c>
       <c r="I35" t="n">
-        <v>82.71777539290478</v>
+        <v>82.7177753929048</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>2.135189281195323</v>
       </c>
       <c r="S35" t="n">
-        <v>82.71777539290478</v>
+        <v>82.7177753929048</v>
       </c>
       <c r="T35" t="n">
-        <v>82.71777539290478</v>
+        <v>82.7177753929048</v>
       </c>
       <c r="U35" t="n">
-        <v>82.71777539290478</v>
+        <v>82.7177753929048</v>
       </c>
       <c r="V35" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290514</v>
       </c>
       <c r="W35" t="n">
-        <v>82.71777539290478</v>
+        <v>82.7177753929048</v>
       </c>
       <c r="X35" t="n">
-        <v>82.71777539290478</v>
+        <v>82.7177753929048</v>
       </c>
       <c r="Y35" t="n">
-        <v>82.71777539290478</v>
+        <v>82.7177753929048</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>82.71777539290478</v>
+        <v>82.7177753929048</v>
       </c>
       <c r="C37" t="n">
-        <v>82.71777539290478</v>
+        <v>82.7177753929048</v>
       </c>
       <c r="D37" t="n">
-        <v>82.71777539290478</v>
+        <v>82.7177753929048</v>
       </c>
       <c r="E37" t="n">
-        <v>82.71777539290478</v>
+        <v>82.7177753929048</v>
       </c>
       <c r="F37" t="n">
-        <v>82.71777539290478</v>
+        <v>82.7177753929048</v>
       </c>
       <c r="G37" t="n">
-        <v>82.71777539290478</v>
+        <v>82.7177753929048</v>
       </c>
       <c r="H37" t="n">
-        <v>82.71777539290478</v>
+        <v>82.7177753929048</v>
       </c>
       <c r="I37" t="n">
-        <v>82.71777539290478</v>
+        <v>82.7177753929048</v>
       </c>
       <c r="J37" t="n">
-        <v>82.71777539290478</v>
+        <v>82.7177753929048</v>
       </c>
       <c r="K37" t="n">
-        <v>82.71777539290478</v>
+        <v>82.7177753929048</v>
       </c>
       <c r="L37" t="n">
-        <v>82.71777539290478</v>
+        <v>82.7177753929048</v>
       </c>
       <c r="M37" t="n">
-        <v>82.71777539290478</v>
+        <v>82.7177753929048</v>
       </c>
       <c r="N37" t="n">
-        <v>82.71777539290478</v>
+        <v>82.7177753929048</v>
       </c>
       <c r="O37" t="n">
-        <v>82.71777539290478</v>
+        <v>82.7177753929048</v>
       </c>
       <c r="P37" t="n">
-        <v>82.71777539290478</v>
+        <v>82.7177753929048</v>
       </c>
       <c r="Q37" t="n">
-        <v>82.71777539290478</v>
+        <v>82.7177753929048</v>
       </c>
       <c r="R37" t="n">
-        <v>82.71777539290478</v>
+        <v>82.7177753929048</v>
       </c>
       <c r="S37" t="n">
-        <v>82.71777539290478</v>
+        <v>82.7177753929048</v>
       </c>
       <c r="T37" t="n">
-        <v>82.71777539290478</v>
+        <v>82.7177753929048</v>
       </c>
       <c r="U37" t="n">
-        <v>82.71777539290478</v>
+        <v>82.7177753929048</v>
       </c>
       <c r="V37" t="n">
-        <v>82.71777539290478</v>
+        <v>82.7177753929048</v>
       </c>
       <c r="W37" t="n">
-        <v>82.71777539290478</v>
+        <v>82.7177753929048</v>
       </c>
       <c r="X37" t="n">
-        <v>82.71777539290478</v>
+        <v>82.7177753929048</v>
       </c>
       <c r="Y37" t="n">
-        <v>82.71777539290478</v>
+        <v>82.7177753929048</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290483</v>
       </c>
       <c r="C38" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290483</v>
       </c>
       <c r="D38" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290483</v>
       </c>
       <c r="E38" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290483</v>
       </c>
       <c r="F38" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290483</v>
       </c>
       <c r="G38" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290483</v>
       </c>
       <c r="H38" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290483</v>
       </c>
       <c r="I38" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290483</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>2.135189281195323</v>
       </c>
       <c r="S38" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290483</v>
       </c>
       <c r="T38" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290483</v>
       </c>
       <c r="U38" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290483</v>
       </c>
       <c r="V38" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290483</v>
       </c>
       <c r="W38" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290483</v>
       </c>
       <c r="X38" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290483</v>
       </c>
       <c r="Y38" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290483</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290483</v>
       </c>
       <c r="C40" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290483</v>
       </c>
       <c r="D40" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290483</v>
       </c>
       <c r="E40" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290483</v>
       </c>
       <c r="F40" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290483</v>
       </c>
       <c r="G40" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290483</v>
       </c>
       <c r="H40" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290483</v>
       </c>
       <c r="I40" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290483</v>
       </c>
       <c r="J40" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290483</v>
       </c>
       <c r="K40" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290483</v>
       </c>
       <c r="L40" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290483</v>
       </c>
       <c r="M40" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290483</v>
       </c>
       <c r="N40" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290483</v>
       </c>
       <c r="O40" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290483</v>
       </c>
       <c r="P40" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290483</v>
       </c>
       <c r="Q40" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290483</v>
       </c>
       <c r="R40" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290483</v>
       </c>
       <c r="S40" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290483</v>
       </c>
       <c r="T40" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290483</v>
       </c>
       <c r="U40" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290483</v>
       </c>
       <c r="V40" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290483</v>
       </c>
       <c r="W40" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290483</v>
       </c>
       <c r="X40" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290483</v>
       </c>
       <c r="Y40" t="n">
-        <v>82.71777539290473</v>
+        <v>82.71777539290483</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="C41" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="D41" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="E41" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="F41" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="G41" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="H41" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="I41" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>2.135189281195323</v>
       </c>
       <c r="S41" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="T41" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="U41" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="V41" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="W41" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="X41" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="Y41" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="C43" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="D43" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="E43" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="F43" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="G43" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="H43" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="I43" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="J43" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="K43" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="L43" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="M43" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="N43" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="O43" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="P43" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="Q43" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="R43" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="S43" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="T43" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="U43" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="V43" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="W43" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="X43" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="Y43" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="C44" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="D44" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="E44" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="F44" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="G44" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="H44" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="I44" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>2.135189281195323</v>
       </c>
       <c r="S44" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="T44" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="U44" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="V44" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="W44" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="X44" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="Y44" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="C46" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="D46" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="E46" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="F46" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="G46" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="H46" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="I46" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="J46" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="K46" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="L46" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="M46" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="N46" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="O46" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="P46" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="Q46" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="R46" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="S46" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="T46" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="U46" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="V46" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="W46" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="X46" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="Y46" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
     </row>
   </sheetData>
@@ -31987,28 +31987,28 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.351842535330495</v>
+        <v>2.351842535330496</v>
       </c>
       <c r="H14" t="n">
-        <v>24.08580736495344</v>
+        <v>24.08580736495345</v>
       </c>
       <c r="I14" t="n">
-        <v>90.66940934332902</v>
+        <v>90.66940934332904</v>
       </c>
       <c r="J14" t="n">
-        <v>199.6096953830068</v>
+        <v>199.6096953830069</v>
       </c>
       <c r="K14" t="n">
         <v>299.1631899035468</v>
       </c>
       <c r="L14" t="n">
-        <v>371.1383908941675</v>
+        <v>371.1383908941676</v>
       </c>
       <c r="M14" t="n">
-        <v>412.9629705818512</v>
+        <v>412.9629705818513</v>
       </c>
       <c r="N14" t="n">
-        <v>419.645143185359</v>
+        <v>419.6451431853591</v>
       </c>
       <c r="O14" t="n">
         <v>396.2590089746664</v>
@@ -32017,13 +32017,13 @@
         <v>338.1978963836947</v>
       </c>
       <c r="Q14" t="n">
-        <v>253.9725355871712</v>
+        <v>253.9725355871713</v>
       </c>
       <c r="R14" t="n">
         <v>147.7339286599544</v>
       </c>
       <c r="S14" t="n">
-        <v>53.59261177384372</v>
+        <v>53.59261177384373</v>
       </c>
       <c r="T14" t="n">
         <v>10.29519069840925</v>
@@ -32072,10 +32072,10 @@
         <v>12.15297989736738</v>
       </c>
       <c r="I15" t="n">
-        <v>43.32465585573746</v>
+        <v>43.32465585573747</v>
       </c>
       <c r="J15" t="n">
-        <v>118.8861671068077</v>
+        <v>118.8861671068078</v>
       </c>
       <c r="K15" t="n">
         <v>203.1953954956288</v>
@@ -32084,7 +32084,7 @@
         <v>273.2212851131571</v>
       </c>
       <c r="M15" t="n">
-        <v>318.8363527115863</v>
+        <v>318.8363527115864</v>
       </c>
       <c r="N15" t="n">
         <v>327.2750022406848</v>
@@ -32099,16 +32099,16 @@
         <v>160.6268514682017</v>
       </c>
       <c r="R15" t="n">
-        <v>78.12787621577321</v>
+        <v>78.12787621577323</v>
       </c>
       <c r="S15" t="n">
         <v>23.37323790433733</v>
       </c>
       <c r="T15" t="n">
-        <v>5.072020220563402</v>
+        <v>5.072020220563403</v>
       </c>
       <c r="U15" t="n">
-        <v>0.08278596660332002</v>
+        <v>0.08278596660332004</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,46 +32148,46 @@
         <v>1.054955596278373</v>
       </c>
       <c r="H16" t="n">
-        <v>9.37951430145681</v>
+        <v>9.379514301456812</v>
       </c>
       <c r="I16" t="n">
         <v>31.72539193171689</v>
       </c>
       <c r="J16" t="n">
-        <v>74.58536065688094</v>
+        <v>74.58536065688095</v>
       </c>
       <c r="K16" t="n">
-        <v>122.5666592767054</v>
+        <v>122.5666592767055</v>
       </c>
       <c r="L16" t="n">
         <v>156.8431256503319</v>
       </c>
       <c r="M16" t="n">
-        <v>165.3690849693452</v>
+        <v>165.3690849693453</v>
       </c>
       <c r="N16" t="n">
-        <v>161.4369777468532</v>
+        <v>161.4369777468533</v>
       </c>
       <c r="O16" t="n">
         <v>149.1131782812377</v>
       </c>
       <c r="P16" t="n">
-        <v>127.5920841171587</v>
+        <v>127.5920841171588</v>
       </c>
       <c r="Q16" t="n">
-        <v>88.33814543018264</v>
+        <v>88.33814543018265</v>
       </c>
       <c r="R16" t="n">
-        <v>47.4346398108439</v>
+        <v>47.43463981084391</v>
       </c>
       <c r="S16" t="n">
-        <v>18.38499889150581</v>
+        <v>18.38499889150582</v>
       </c>
       <c r="T16" t="n">
-        <v>4.507537547734863</v>
+        <v>4.507537547734864</v>
       </c>
       <c r="U16" t="n">
-        <v>0.05754303252427493</v>
+        <v>0.05754303252427494</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,28 +32224,28 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.351842535330495</v>
+        <v>2.351842535330496</v>
       </c>
       <c r="H17" t="n">
-        <v>24.08580736495344</v>
+        <v>24.08580736495345</v>
       </c>
       <c r="I17" t="n">
-        <v>90.66940934332902</v>
+        <v>90.66940934332904</v>
       </c>
       <c r="J17" t="n">
-        <v>199.6096953830068</v>
+        <v>199.6096953830069</v>
       </c>
       <c r="K17" t="n">
         <v>299.1631899035468</v>
       </c>
       <c r="L17" t="n">
-        <v>371.1383908941675</v>
+        <v>371.1383908941676</v>
       </c>
       <c r="M17" t="n">
-        <v>412.9629705818512</v>
+        <v>412.9629705818513</v>
       </c>
       <c r="N17" t="n">
-        <v>419.645143185359</v>
+        <v>419.6451431853591</v>
       </c>
       <c r="O17" t="n">
         <v>396.2590089746664</v>
@@ -32254,13 +32254,13 @@
         <v>338.1978963836947</v>
       </c>
       <c r="Q17" t="n">
-        <v>253.9725355871712</v>
+        <v>253.9725355871713</v>
       </c>
       <c r="R17" t="n">
         <v>147.7339286599544</v>
       </c>
       <c r="S17" t="n">
-        <v>53.59261177384372</v>
+        <v>53.59261177384373</v>
       </c>
       <c r="T17" t="n">
         <v>10.29519069840925</v>
@@ -32309,10 +32309,10 @@
         <v>12.15297989736738</v>
       </c>
       <c r="I18" t="n">
-        <v>43.32465585573746</v>
+        <v>43.32465585573747</v>
       </c>
       <c r="J18" t="n">
-        <v>118.8861671068077</v>
+        <v>118.8861671068078</v>
       </c>
       <c r="K18" t="n">
         <v>203.1953954956288</v>
@@ -32321,7 +32321,7 @@
         <v>273.2212851131571</v>
       </c>
       <c r="M18" t="n">
-        <v>318.8363527115863</v>
+        <v>318.8363527115864</v>
       </c>
       <c r="N18" t="n">
         <v>327.2750022406848</v>
@@ -32336,16 +32336,16 @@
         <v>160.6268514682017</v>
       </c>
       <c r="R18" t="n">
-        <v>78.12787621577321</v>
+        <v>78.12787621577323</v>
       </c>
       <c r="S18" t="n">
         <v>23.37323790433733</v>
       </c>
       <c r="T18" t="n">
-        <v>5.072020220563402</v>
+        <v>5.072020220563403</v>
       </c>
       <c r="U18" t="n">
-        <v>0.08278596660332002</v>
+        <v>0.08278596660332004</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,46 +32385,46 @@
         <v>1.054955596278373</v>
       </c>
       <c r="H19" t="n">
-        <v>9.37951430145681</v>
+        <v>9.379514301456812</v>
       </c>
       <c r="I19" t="n">
         <v>31.72539193171689</v>
       </c>
       <c r="J19" t="n">
-        <v>74.58536065688094</v>
+        <v>74.58536065688095</v>
       </c>
       <c r="K19" t="n">
-        <v>122.5666592767054</v>
+        <v>122.5666592767055</v>
       </c>
       <c r="L19" t="n">
         <v>156.8431256503319</v>
       </c>
       <c r="M19" t="n">
-        <v>165.3690849693452</v>
+        <v>165.3690849693453</v>
       </c>
       <c r="N19" t="n">
-        <v>161.4369777468532</v>
+        <v>161.4369777468533</v>
       </c>
       <c r="O19" t="n">
         <v>149.1131782812377</v>
       </c>
       <c r="P19" t="n">
-        <v>127.5920841171587</v>
+        <v>127.5920841171588</v>
       </c>
       <c r="Q19" t="n">
-        <v>88.33814543018264</v>
+        <v>88.33814543018265</v>
       </c>
       <c r="R19" t="n">
-        <v>47.4346398108439</v>
+        <v>47.43463981084391</v>
       </c>
       <c r="S19" t="n">
-        <v>18.38499889150581</v>
+        <v>18.38499889150582</v>
       </c>
       <c r="T19" t="n">
-        <v>4.507537547734863</v>
+        <v>4.507537547734864</v>
       </c>
       <c r="U19" t="n">
-        <v>0.05754303252427493</v>
+        <v>0.05754303252427494</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,28 +32461,28 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.351842535330495</v>
+        <v>2.351842535330496</v>
       </c>
       <c r="H20" t="n">
-        <v>24.08580736495344</v>
+        <v>24.08580736495345</v>
       </c>
       <c r="I20" t="n">
-        <v>90.66940934332902</v>
+        <v>90.66940934332904</v>
       </c>
       <c r="J20" t="n">
-        <v>199.6096953830068</v>
+        <v>199.6096953830069</v>
       </c>
       <c r="K20" t="n">
         <v>299.1631899035468</v>
       </c>
       <c r="L20" t="n">
-        <v>371.1383908941675</v>
+        <v>371.1383908941676</v>
       </c>
       <c r="M20" t="n">
-        <v>412.9629705818512</v>
+        <v>412.9629705818513</v>
       </c>
       <c r="N20" t="n">
-        <v>419.645143185359</v>
+        <v>419.6451431853591</v>
       </c>
       <c r="O20" t="n">
         <v>396.2590089746664</v>
@@ -32491,13 +32491,13 @@
         <v>338.1978963836947</v>
       </c>
       <c r="Q20" t="n">
-        <v>253.9725355871712</v>
+        <v>253.9725355871713</v>
       </c>
       <c r="R20" t="n">
         <v>147.7339286599544</v>
       </c>
       <c r="S20" t="n">
-        <v>53.59261177384372</v>
+        <v>53.59261177384373</v>
       </c>
       <c r="T20" t="n">
         <v>10.29519069840925</v>
@@ -32546,10 +32546,10 @@
         <v>12.15297989736738</v>
       </c>
       <c r="I21" t="n">
-        <v>43.32465585573746</v>
+        <v>43.32465585573747</v>
       </c>
       <c r="J21" t="n">
-        <v>118.8861671068077</v>
+        <v>118.8861671068078</v>
       </c>
       <c r="K21" t="n">
         <v>203.1953954956288</v>
@@ -32558,7 +32558,7 @@
         <v>273.2212851131571</v>
       </c>
       <c r="M21" t="n">
-        <v>318.8363527115863</v>
+        <v>318.8363527115864</v>
       </c>
       <c r="N21" t="n">
         <v>327.2750022406848</v>
@@ -32573,16 +32573,16 @@
         <v>160.6268514682017</v>
       </c>
       <c r="R21" t="n">
-        <v>78.12787621577321</v>
+        <v>78.12787621577323</v>
       </c>
       <c r="S21" t="n">
         <v>23.37323790433733</v>
       </c>
       <c r="T21" t="n">
-        <v>5.072020220563402</v>
+        <v>5.072020220563403</v>
       </c>
       <c r="U21" t="n">
-        <v>0.08278596660332002</v>
+        <v>0.08278596660332004</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,46 +32622,46 @@
         <v>1.054955596278373</v>
       </c>
       <c r="H22" t="n">
-        <v>9.37951430145681</v>
+        <v>9.379514301456812</v>
       </c>
       <c r="I22" t="n">
         <v>31.72539193171689</v>
       </c>
       <c r="J22" t="n">
-        <v>74.58536065688094</v>
+        <v>74.58536065688095</v>
       </c>
       <c r="K22" t="n">
-        <v>122.5666592767054</v>
+        <v>122.5666592767055</v>
       </c>
       <c r="L22" t="n">
         <v>156.8431256503319</v>
       </c>
       <c r="M22" t="n">
-        <v>165.3690849693452</v>
+        <v>165.3690849693453</v>
       </c>
       <c r="N22" t="n">
-        <v>161.4369777468532</v>
+        <v>161.4369777468533</v>
       </c>
       <c r="O22" t="n">
         <v>149.1131782812377</v>
       </c>
       <c r="P22" t="n">
-        <v>127.5920841171587</v>
+        <v>127.5920841171588</v>
       </c>
       <c r="Q22" t="n">
-        <v>88.33814543018264</v>
+        <v>88.33814543018265</v>
       </c>
       <c r="R22" t="n">
-        <v>47.4346398108439</v>
+        <v>47.43463981084391</v>
       </c>
       <c r="S22" t="n">
-        <v>18.38499889150581</v>
+        <v>18.38499889150582</v>
       </c>
       <c r="T22" t="n">
-        <v>4.507537547734863</v>
+        <v>4.507537547734864</v>
       </c>
       <c r="U22" t="n">
-        <v>0.05754303252427493</v>
+        <v>0.05754303252427494</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34784,19 +34784,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35018,7 +35018,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>231.276337811895</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>241.0142888776591</v>
@@ -35030,10 +35030,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35252,7 +35252,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>232.285965523585</v>
@@ -35261,13 +35261,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>169.9067907798016</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>65.35395652126979</v>
+        <v>110.030033066421</v>
       </c>
       <c r="L12" t="n">
         <v>505.5072506367421</v>
@@ -35504,7 +35504,7 @@
         <v>550.6587635209717</v>
       </c>
       <c r="P12" t="n">
-        <v>150.9906967291775</v>
+        <v>106.3146201840261</v>
       </c>
       <c r="Q12" t="n">
         <v>20.64507738218015</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>6.180450788734589</v>
+        <v>6.180450788734547</v>
       </c>
       <c r="K13" t="n">
         <v>125.251437699349</v>
       </c>
       <c r="L13" t="n">
-        <v>209.3874211591745</v>
+        <v>209.3874211591744</v>
       </c>
       <c r="M13" t="n">
-        <v>229.9072321797123</v>
+        <v>229.9072321797122</v>
       </c>
       <c r="N13" t="n">
-        <v>230.5234203746083</v>
+        <v>230.5234203746082</v>
       </c>
       <c r="O13" t="n">
-        <v>198.6525764438038</v>
+        <v>198.6525764438037</v>
       </c>
       <c r="P13" t="n">
-        <v>149.8249136305787</v>
+        <v>149.8249136305786</v>
       </c>
       <c r="Q13" t="n">
-        <v>27.13037242701467</v>
+        <v>27.13037242701463</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35650,22 +35650,22 @@
         <v>403.218751429731</v>
       </c>
       <c r="L14" t="n">
-        <v>553.0331904746306</v>
+        <v>553.0331904746308</v>
       </c>
       <c r="M14" t="n">
-        <v>632.1302708474109</v>
+        <v>632.130270847411</v>
       </c>
       <c r="N14" t="n">
-        <v>627.5790040007522</v>
+        <v>627.5790040007523</v>
       </c>
       <c r="O14" t="n">
-        <v>546.960978815725</v>
+        <v>546.9609788157251</v>
       </c>
       <c r="P14" t="n">
         <v>428.7636087999078</v>
       </c>
       <c r="Q14" t="n">
-        <v>243.9818363726264</v>
+        <v>243.9818363726265</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35726,25 +35726,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>65.35395652126979</v>
+        <v>65.35395652126985</v>
       </c>
       <c r="L15" t="n">
         <v>505.5072506367421</v>
       </c>
       <c r="M15" t="n">
-        <v>642.4073825395678</v>
+        <v>642.4073825395679</v>
       </c>
       <c r="N15" t="n">
-        <v>675.275664500905</v>
+        <v>675.2756645009051</v>
       </c>
       <c r="O15" t="n">
         <v>550.6587635209717</v>
       </c>
       <c r="P15" t="n">
-        <v>150.9906967291775</v>
+        <v>150.990696729177</v>
       </c>
       <c r="Q15" t="n">
-        <v>20.64507738218015</v>
+        <v>20.64507738218018</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>6.180450788734476</v>
+        <v>6.180450788734557</v>
       </c>
       <c r="K16" t="n">
-        <v>125.2514376993489</v>
+        <v>125.251437699349</v>
       </c>
       <c r="L16" t="n">
         <v>209.3874211591744</v>
       </c>
       <c r="M16" t="n">
-        <v>229.9072321797121</v>
+        <v>229.9072321797122</v>
       </c>
       <c r="N16" t="n">
         <v>230.5234203746082</v>
       </c>
       <c r="O16" t="n">
-        <v>198.6525764438036</v>
+        <v>198.6525764438037</v>
       </c>
       <c r="P16" t="n">
-        <v>149.8249136305785</v>
+        <v>149.8249136305786</v>
       </c>
       <c r="Q16" t="n">
-        <v>27.13037242701456</v>
+        <v>27.13037242701465</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35887,22 +35887,22 @@
         <v>403.218751429731</v>
       </c>
       <c r="L17" t="n">
-        <v>553.0331904746306</v>
+        <v>553.0331904746308</v>
       </c>
       <c r="M17" t="n">
-        <v>632.1302708474109</v>
+        <v>632.130270847411</v>
       </c>
       <c r="N17" t="n">
-        <v>627.5790040007522</v>
+        <v>627.5790040007523</v>
       </c>
       <c r="O17" t="n">
-        <v>546.960978815725</v>
+        <v>546.9609788157251</v>
       </c>
       <c r="P17" t="n">
         <v>428.7636087999078</v>
       </c>
       <c r="Q17" t="n">
-        <v>243.9818363726264</v>
+        <v>243.9818363726265</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>49.47592614027688</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>329.8191935338484</v>
+        <v>65.35395652126985</v>
       </c>
       <c r="L18" t="n">
         <v>505.5072506367421</v>
       </c>
       <c r="M18" t="n">
-        <v>642.4073825395678</v>
+        <v>642.4073825395679</v>
       </c>
       <c r="N18" t="n">
-        <v>195.9332901573515</v>
+        <v>675.2756645009051</v>
       </c>
       <c r="O18" t="n">
-        <v>550.6587635209717</v>
+        <v>156.7964442442422</v>
       </c>
       <c r="P18" t="n">
-        <v>106.3146201840261</v>
+        <v>424.7773888239633</v>
       </c>
       <c r="Q18" t="n">
-        <v>230.7223651180292</v>
+        <v>140.7207045641233</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>63.94395593311297</v>
+        <v>63.94395593311296</v>
       </c>
       <c r="K19" t="n">
         <v>183.0149428437274</v>
@@ -36060,7 +36060,7 @@
         <v>207.5884187749571</v>
       </c>
       <c r="Q19" t="n">
-        <v>84.89387757139306</v>
+        <v>84.89387757139305</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36124,22 +36124,22 @@
         <v>403.218751429731</v>
       </c>
       <c r="L20" t="n">
-        <v>553.0331904746306</v>
+        <v>553.0331904746308</v>
       </c>
       <c r="M20" t="n">
-        <v>632.1302708474109</v>
+        <v>632.130270847411</v>
       </c>
       <c r="N20" t="n">
-        <v>627.5790040007536</v>
+        <v>627.5790040007523</v>
       </c>
       <c r="O20" t="n">
-        <v>546.960978815725</v>
+        <v>546.9609788157251</v>
       </c>
       <c r="P20" t="n">
         <v>428.7636087999078</v>
       </c>
       <c r="Q20" t="n">
-        <v>243.9818363726264</v>
+        <v>243.9818363726265</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,19 +36197,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>118.1395757805499</v>
       </c>
       <c r="K21" t="n">
-        <v>65.35395652126979</v>
+        <v>329.8191935338484</v>
       </c>
       <c r="L21" t="n">
-        <v>231.7205585419561</v>
+        <v>505.5072506367421</v>
       </c>
       <c r="M21" t="n">
-        <v>642.4073825395678</v>
+        <v>255.2809642593575</v>
       </c>
       <c r="N21" t="n">
-        <v>675.275664500905</v>
+        <v>195.9332901573515</v>
       </c>
       <c r="O21" t="n">
         <v>550.6587635209717</v>
@@ -36218,7 +36218,7 @@
         <v>424.7773888239633</v>
       </c>
       <c r="Q21" t="n">
-        <v>20.64507738218015</v>
+        <v>230.7223651180293</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>63.94395593311297</v>
+        <v>63.94395593311296</v>
       </c>
       <c r="K22" t="n">
         <v>183.0149428437274</v>
@@ -36297,7 +36297,7 @@
         <v>207.5884187749571</v>
       </c>
       <c r="Q22" t="n">
-        <v>84.89387757139306</v>
+        <v>84.89387757139305</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>118.1395757805499</v>
       </c>
       <c r="K24" t="n">
-        <v>65.35395652126979</v>
+        <v>329.8191935338484</v>
       </c>
       <c r="L24" t="n">
         <v>505.5072506367421</v>
       </c>
       <c r="M24" t="n">
-        <v>642.4073825395678</v>
+        <v>255.2809642593575</v>
       </c>
       <c r="N24" t="n">
-        <v>675.275664500905</v>
+        <v>195.9332901573515</v>
       </c>
       <c r="O24" t="n">
         <v>550.6587635209717</v>
       </c>
       <c r="P24" t="n">
-        <v>106.3146201840261</v>
+        <v>424.7773888239633</v>
       </c>
       <c r="Q24" t="n">
-        <v>65.32115392733155</v>
+        <v>230.7223651180292</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>63.94395593311297</v>
+        <v>63.94395593311287</v>
       </c>
       <c r="K25" t="n">
-        <v>183.0149428437274</v>
+        <v>183.0149428437273</v>
       </c>
       <c r="L25" t="n">
-        <v>267.1509263035529</v>
+        <v>267.1509263035528</v>
       </c>
       <c r="M25" t="n">
-        <v>287.6707373240906</v>
+        <v>287.6707373240905</v>
       </c>
       <c r="N25" t="n">
-        <v>288.2869255189867</v>
+        <v>288.2869255189865</v>
       </c>
       <c r="O25" t="n">
-        <v>256.4160815881821</v>
+        <v>256.416081588182</v>
       </c>
       <c r="P25" t="n">
-        <v>207.5884187749571</v>
+        <v>207.5884187749569</v>
       </c>
       <c r="Q25" t="n">
-        <v>84.89387757139306</v>
+        <v>84.89387757139296</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36853,7 +36853,7 @@
         <v>243.9818363726264</v>
       </c>
       <c r="R29" t="n">
-        <v>1.378022275413528e-12</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,10 +36908,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>118.1395757805499</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>329.8191935338484</v>
+        <v>65.35395652126979</v>
       </c>
       <c r="L30" t="n">
         <v>505.5072506367421</v>
@@ -36920,16 +36920,16 @@
         <v>642.4073825395678</v>
       </c>
       <c r="N30" t="n">
-        <v>195.9332901573515</v>
+        <v>675.275664500905</v>
       </c>
       <c r="O30" t="n">
-        <v>163.5323452407617</v>
+        <v>550.6587635209717</v>
       </c>
       <c r="P30" t="n">
-        <v>424.7773888239633</v>
+        <v>150.9906967291775</v>
       </c>
       <c r="Q30" t="n">
-        <v>230.7223651180292</v>
+        <v>20.64507738218015</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37145,10 +37145,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>118.1395757805499</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>329.8191935338484</v>
+        <v>65.35395652126979</v>
       </c>
       <c r="L33" t="n">
         <v>505.5072506367421</v>
@@ -37157,16 +37157,16 @@
         <v>642.4073825395678</v>
       </c>
       <c r="N33" t="n">
-        <v>195.9332901573515</v>
+        <v>675.275664500905</v>
       </c>
       <c r="O33" t="n">
-        <v>163.5323452407617</v>
+        <v>550.6587635209717</v>
       </c>
       <c r="P33" t="n">
-        <v>424.7773888239633</v>
+        <v>150.9906967291775</v>
       </c>
       <c r="Q33" t="n">
-        <v>230.7223651180292</v>
+        <v>20.64507738218015</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>187.6604060283943</v>
+        <v>187.6604060283956</v>
       </c>
       <c r="K35" t="n">
         <v>403.218751429731</v>
@@ -37388,22 +37388,22 @@
         <v>329.8191935338484</v>
       </c>
       <c r="L36" t="n">
-        <v>505.5072506367421</v>
+        <v>167.5785143887648</v>
       </c>
       <c r="M36" t="n">
         <v>642.4073825395678</v>
       </c>
       <c r="N36" t="n">
-        <v>195.9332901573515</v>
+        <v>675.275664500905</v>
       </c>
       <c r="O36" t="n">
-        <v>163.5323452407617</v>
+        <v>550.6587635209717</v>
       </c>
       <c r="P36" t="n">
-        <v>424.7773888239633</v>
+        <v>106.3146201840261</v>
       </c>
       <c r="Q36" t="n">
-        <v>230.7223651180292</v>
+        <v>20.64507738218015</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,19 +37461,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>63.94395593311295</v>
+        <v>63.94395593311296</v>
       </c>
       <c r="K37" t="n">
         <v>183.0149428437274</v>
       </c>
       <c r="L37" t="n">
-        <v>267.1509263035528</v>
+        <v>267.1509263035529</v>
       </c>
       <c r="M37" t="n">
         <v>287.6707373240906</v>
       </c>
       <c r="N37" t="n">
-        <v>288.2869255189866</v>
+        <v>288.2869255189867</v>
       </c>
       <c r="O37" t="n">
         <v>256.4160815881821</v>
@@ -37482,7 +37482,7 @@
         <v>207.588418774957</v>
       </c>
       <c r="Q37" t="n">
-        <v>84.89387757139303</v>
+        <v>84.89387757139305</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>187.6604060283943</v>
+        <v>187.6604060283956</v>
       </c>
       <c r="K38" t="n">
         <v>403.218751429731</v>
@@ -37561,7 +37561,7 @@
         <v>428.7636087999078</v>
       </c>
       <c r="Q38" t="n">
-        <v>243.9818363726276</v>
+        <v>243.9818363726264</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>118.1395757805499</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>329.8191935338484</v>
@@ -37628,16 +37628,16 @@
         <v>505.5072506367421</v>
       </c>
       <c r="M39" t="n">
-        <v>176.702318789568</v>
+        <v>606.4032536130206</v>
       </c>
       <c r="N39" t="n">
-        <v>274.5119356271413</v>
+        <v>675.275664500905</v>
       </c>
       <c r="O39" t="n">
-        <v>550.6587635209717</v>
+        <v>156.7964442442421</v>
       </c>
       <c r="P39" t="n">
-        <v>424.7773888239633</v>
+        <v>106.3146201840261</v>
       </c>
       <c r="Q39" t="n">
         <v>230.7223651180292</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>63.94395593311289</v>
+        <v>63.94395593311299</v>
       </c>
       <c r="K40" t="n">
-        <v>183.0149428437273</v>
+        <v>183.0149428437274</v>
       </c>
       <c r="L40" t="n">
-        <v>267.1509263035528</v>
+        <v>267.1509263035529</v>
       </c>
       <c r="M40" t="n">
         <v>287.6707373240906</v>
       </c>
       <c r="N40" t="n">
-        <v>288.2869255189865</v>
+        <v>288.2869255189867</v>
       </c>
       <c r="O40" t="n">
         <v>256.4160815881821</v>
       </c>
       <c r="P40" t="n">
-        <v>207.5884187749569</v>
+        <v>207.5884187749571</v>
       </c>
       <c r="Q40" t="n">
-        <v>84.89387757139298</v>
+        <v>84.89387757139308</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37856,10 +37856,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>118.1395757805499</v>
       </c>
       <c r="K42" t="n">
-        <v>65.35395652126979</v>
+        <v>175.6754888267514</v>
       </c>
       <c r="L42" t="n">
         <v>505.5072506367421</v>
@@ -37871,13 +37871,13 @@
         <v>675.275664500905</v>
       </c>
       <c r="O42" t="n">
-        <v>550.6587635209717</v>
+        <v>156.7964442442421</v>
       </c>
       <c r="P42" t="n">
-        <v>150.9906967291775</v>
+        <v>106.3146201840261</v>
       </c>
       <c r="Q42" t="n">
-        <v>20.64507738218015</v>
+        <v>230.7223651180292</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>63.94395593311295</v>
+        <v>63.94395593311287</v>
       </c>
       <c r="K43" t="n">
-        <v>183.0149428437274</v>
+        <v>183.0149428437273</v>
       </c>
       <c r="L43" t="n">
         <v>267.1509263035528</v>
       </c>
       <c r="M43" t="n">
-        <v>287.6707373240906</v>
+        <v>287.6707373240905</v>
       </c>
       <c r="N43" t="n">
-        <v>288.2869255189866</v>
+        <v>288.2869255189865</v>
       </c>
       <c r="O43" t="n">
-        <v>256.4160815881821</v>
+        <v>256.416081588182</v>
       </c>
       <c r="P43" t="n">
-        <v>207.588418774957</v>
+        <v>207.5884187749569</v>
       </c>
       <c r="Q43" t="n">
-        <v>84.89387757139303</v>
+        <v>84.89387757139296</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,7 +38017,7 @@
         <v>187.6604060283943</v>
       </c>
       <c r="K44" t="n">
-        <v>403.2187514297318</v>
+        <v>403.218751429731</v>
       </c>
       <c r="L44" t="n">
         <v>553.0331904746306</v>
@@ -38096,16 +38096,16 @@
         <v>118.1395757805499</v>
       </c>
       <c r="K45" t="n">
-        <v>65.35395652126979</v>
+        <v>329.8191935338484</v>
       </c>
       <c r="L45" t="n">
         <v>505.5072506367421</v>
       </c>
       <c r="M45" t="n">
-        <v>519.7462012719363</v>
+        <v>176.702318789568</v>
       </c>
       <c r="N45" t="n">
-        <v>195.9332901573515</v>
+        <v>274.5119356271413</v>
       </c>
       <c r="O45" t="n">
         <v>550.6587635209717</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>63.94395593311295</v>
+        <v>63.94395593311287</v>
       </c>
       <c r="K46" t="n">
-        <v>183.0149428437274</v>
+        <v>183.0149428437273</v>
       </c>
       <c r="L46" t="n">
         <v>267.1509263035528</v>
       </c>
       <c r="M46" t="n">
-        <v>287.6707373240906</v>
+        <v>287.6707373240905</v>
       </c>
       <c r="N46" t="n">
-        <v>288.2869255189866</v>
+        <v>288.2869255189865</v>
       </c>
       <c r="O46" t="n">
-        <v>256.4160815881821</v>
+        <v>256.416081588182</v>
       </c>
       <c r="P46" t="n">
-        <v>207.588418774957</v>
+        <v>207.5884187749569</v>
       </c>
       <c r="Q46" t="n">
-        <v>84.89387757139303</v>
+        <v>84.89387757139296</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
